--- a/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.001696415322044</v>
+        <v>4.001696415321874</v>
       </c>
       <c r="C2">
         <v>1.167418182946875</v>
       </c>
       <c r="D2">
-        <v>0.2178646772729991</v>
+        <v>0.2178646772727859</v>
       </c>
       <c r="E2">
-        <v>1.526789664574878</v>
+        <v>1.526789664574935</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.380767998449926</v>
+        <v>3.380767998450267</v>
       </c>
       <c r="C3">
-        <v>0.9820627656701788</v>
+        <v>0.9820627656692977</v>
       </c>
       <c r="D3">
-        <v>0.1854606667418324</v>
+        <v>0.1854606667420171</v>
       </c>
       <c r="E3">
-        <v>1.284722348510499</v>
+        <v>1.284722348510414</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.017035542002134</v>
+        <v>3.017035542002304</v>
       </c>
       <c r="C4">
-        <v>0.873986958756177</v>
+        <v>0.8739869587566602</v>
       </c>
       <c r="D4">
-        <v>0.1663579281768222</v>
+        <v>0.1663579281770922</v>
       </c>
       <c r="E4">
-        <v>1.143743077137344</v>
+        <v>1.14374307713733</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.106353359805098</v>
+        <v>7.106353359805013</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.872385300524684</v>
+        <v>2.872385300524343</v>
       </c>
       <c r="C5">
-        <v>0.8311004109723115</v>
+        <v>0.8311004109718283</v>
       </c>
       <c r="D5">
-        <v>0.1587362120758939</v>
+        <v>0.1587362120754534</v>
       </c>
       <c r="E5">
-        <v>1.087828261203612</v>
+        <v>1.087828261203541</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.805587502079931</v>
+        <v>6.805587502079959</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -567,19 +567,19 @@
         <v>2.848560680219236</v>
       </c>
       <c r="C6">
-        <v>0.8240415701540087</v>
+        <v>0.8240415701548613</v>
       </c>
       <c r="D6">
-        <v>0.1574795140438994</v>
+        <v>0.1574795140437288</v>
       </c>
       <c r="E6">
-        <v>1.078626479118014</v>
+        <v>1.078626479118029</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.756012979712722</v>
+        <v>6.756012979712693</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.01507125452099</v>
+        <v>3.015071254520876</v>
       </c>
       <c r="C7">
-        <v>0.8734042364993684</v>
+        <v>0.8734042364998231</v>
       </c>
       <c r="D7">
-        <v>0.1662545236260655</v>
+        <v>0.1662545236261224</v>
       </c>
       <c r="E7">
-        <v>1.142983230538334</v>
+        <v>1.142983230538377</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.102271639852148</v>
+        <v>7.102271639852063</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.783409109074853</v>
+        <v>3.783409109074512</v>
       </c>
       <c r="C8">
-        <v>1.102125993533178</v>
+        <v>1.102125993534031</v>
       </c>
       <c r="D8">
-        <v>0.2065027292533301</v>
+        <v>0.2065027292535007</v>
       </c>
       <c r="E8">
-        <v>1.441475824412549</v>
+        <v>1.441475824412507</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.693710729644977</v>
+        <v>8.693710729645204</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.47816003680083</v>
+        <v>5.478160036800546</v>
       </c>
       <c r="C9">
-        <v>1.613181086114309</v>
+        <v>1.613181086114366</v>
       </c>
       <c r="D9">
-        <v>0.2938581653998114</v>
+        <v>0.2938581653996124</v>
       </c>
       <c r="E9">
-        <v>2.110912221132565</v>
+        <v>2.110912221132594</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>12.16940409784112</v>
+        <v>12.16940409784101</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.93501939212058</v>
+        <v>6.935019392120239</v>
       </c>
       <c r="C10">
-        <v>2.060938893099546</v>
+        <v>2.060938893100115</v>
       </c>
       <c r="D10">
-        <v>0.3673210588690523</v>
+        <v>0.3673210588685976</v>
       </c>
       <c r="E10">
-        <v>2.701737739644017</v>
+        <v>2.701737739644102</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>15.11924492300307</v>
+        <v>15.11924492300324</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.679784553985996</v>
+        <v>7.679784553986565</v>
       </c>
       <c r="C11">
-        <v>2.293206643849089</v>
+        <v>2.293206643849487</v>
       </c>
       <c r="D11">
-        <v>0.4042565657124726</v>
+        <v>0.4042565657129558</v>
       </c>
       <c r="E11">
         <v>3.010477684788739</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>16.61303011689068</v>
+        <v>16.61303011689097</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.978616956907501</v>
+        <v>7.978616956907672</v>
       </c>
       <c r="C12">
-        <v>2.387084035979456</v>
+        <v>2.387084035979058</v>
       </c>
       <c r="D12">
-        <v>0.4189530573249698</v>
+        <v>0.4189530573243587</v>
       </c>
       <c r="E12">
-        <v>3.135803767992343</v>
+        <v>3.135803767992314</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>17.20957743020733</v>
+        <v>17.2095774302071</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.913401308662458</v>
+        <v>7.913401308661719</v>
       </c>
       <c r="C13">
-        <v>2.366562644035525</v>
+        <v>2.36656264403598</v>
       </c>
       <c r="D13">
-        <v>0.4157519353275489</v>
+        <v>0.4157519353275916</v>
       </c>
       <c r="E13">
-        <v>3.108378967583491</v>
+        <v>3.108378967583604</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>17.07953068089927</v>
+        <v>17.07953068089921</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.703994604979528</v>
+        <v>7.703994604979243</v>
       </c>
       <c r="C14">
-        <v>2.300797370832981</v>
+        <v>2.30079737083264</v>
       </c>
       <c r="D14">
-        <v>0.4054498873467054</v>
+        <v>0.4054498873468759</v>
       </c>
       <c r="E14">
-        <v>3.020598974391007</v>
+        <v>3.020598974390936</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>16.66142081341849</v>
+        <v>16.66142081341809</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.578108710912204</v>
+        <v>7.578108710912488</v>
       </c>
       <c r="C15">
-        <v>2.261355800704507</v>
+        <v>2.261355800703882</v>
       </c>
       <c r="D15">
-        <v>0.3992398162810105</v>
+        <v>0.399239816280982</v>
       </c>
       <c r="E15">
-        <v>2.96803138539012</v>
+        <v>2.968031385390248</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>16.40968518311087</v>
+        <v>16.40968518311081</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.888371838219655</v>
+        <v>6.888371838219541</v>
       </c>
       <c r="C16">
-        <v>2.046469615768842</v>
+        <v>2.046469615768217</v>
       </c>
       <c r="D16">
-        <v>0.3649933256972275</v>
+        <v>0.3649933256968154</v>
       </c>
       <c r="E16">
-        <v>2.682561972664146</v>
+        <v>2.682561972664089</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>15.02535578269675</v>
+        <v>15.02535578269698</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.489112918162675</v>
+        <v>6.489112918163016</v>
       </c>
       <c r="C17">
-        <v>1.922994111912544</v>
+        <v>1.922994111911976</v>
       </c>
       <c r="D17">
-        <v>0.345002653750754</v>
+        <v>0.345002653750484</v>
       </c>
       <c r="E17">
-        <v>2.519169730056305</v>
+        <v>2.519169730056291</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>14.22020721032237</v>
+        <v>14.22020721032294</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.266792712658173</v>
+        <v>6.266792712658457</v>
       </c>
       <c r="C18">
-        <v>1.854519659255232</v>
+        <v>1.854519659255118</v>
       </c>
       <c r="D18">
-        <v>0.3338194639079859</v>
+        <v>0.3338194639084406</v>
       </c>
       <c r="E18">
-        <v>2.428738549857457</v>
+        <v>2.428738549857485</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.77068739045549</v>
+        <v>13.77068739045541</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.192660636554876</v>
+        <v>6.192660636554251</v>
       </c>
       <c r="C19">
-        <v>1.831730870334525</v>
+        <v>1.831730870334241</v>
       </c>
       <c r="D19">
-        <v>0.3300823320741983</v>
+        <v>0.3300823320735446</v>
       </c>
       <c r="E19">
         <v>2.398669063809933</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>13.62060945120123</v>
+        <v>13.62060945120092</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.530828068367896</v>
+        <v>6.530828068368123</v>
       </c>
       <c r="C20">
-        <v>1.93586451110383</v>
+        <v>1.935864511104398</v>
       </c>
       <c r="D20">
-        <v>0.3470969191415207</v>
+        <v>0.3470969191421744</v>
       </c>
       <c r="E20">
-        <v>2.536180933931618</v>
+        <v>2.536180933931703</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>14.30445897719281</v>
+        <v>14.30445897719284</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.764993071112031</v>
+        <v>7.764993071112144</v>
       </c>
       <c r="C21">
-        <v>2.319934104555728</v>
+        <v>2.319934104556239</v>
       </c>
       <c r="D21">
-        <v>0.408454438180442</v>
+        <v>0.4084544381806694</v>
       </c>
       <c r="E21">
-        <v>3.046124870061576</v>
+        <v>3.046124870061504</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>16.7832960746174</v>
+        <v>16.78329607461762</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.674243487611477</v>
+        <v>8.674243487611307</v>
       </c>
       <c r="C22">
-        <v>2.607188462268937</v>
+        <v>2.607188462267402</v>
       </c>
       <c r="D22">
-        <v>0.4528791249926485</v>
+        <v>0.4528791249925632</v>
       </c>
       <c r="E22">
-        <v>3.431051863705875</v>
+        <v>3.431051863705818</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>18.59173977862542</v>
+        <v>18.59173977862559</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.177100109882929</v>
+        <v>8.177100109882701</v>
       </c>
       <c r="C23">
-        <v>2.449659116264854</v>
+        <v>2.449659116264343</v>
       </c>
       <c r="D23">
-        <v>0.4286742317604535</v>
+        <v>0.4286742317610219</v>
       </c>
       <c r="E23">
-        <v>3.219532772076406</v>
+        <v>3.219532772076377</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>17.60488516481468</v>
+        <v>17.6048851648149</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.511946499448186</v>
+        <v>6.511946499448015</v>
       </c>
       <c r="C24">
-        <v>1.930038096668738</v>
+        <v>1.930038096668284</v>
       </c>
       <c r="D24">
-        <v>0.3461491508486034</v>
+        <v>0.3461491508489729</v>
       </c>
       <c r="E24">
-        <v>2.52847942767167</v>
+        <v>2.528479427671741</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>14.26632771500792</v>
+        <v>14.26632771500786</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.991426594531276</v>
+        <v>4.99142659453122</v>
       </c>
       <c r="C25">
-        <v>1.465393364931515</v>
+        <v>1.46539336493197</v>
       </c>
       <c r="D25">
-        <v>0.2689729851529847</v>
+        <v>0.2689729851529279</v>
       </c>
       <c r="E25">
-        <v>1.916886415319482</v>
+        <v>1.916886415319425</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>11.17598087331498</v>
+        <v>11.17598087331507</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.001696415321874</v>
+        <v>4.001696415322044</v>
       </c>
       <c r="C2">
         <v>1.167418182946875</v>
       </c>
       <c r="D2">
-        <v>0.2178646772727859</v>
+        <v>0.2178646772729991</v>
       </c>
       <c r="E2">
-        <v>1.526789664574935</v>
+        <v>1.526789664574878</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.380767998450267</v>
+        <v>3.380767998449926</v>
       </c>
       <c r="C3">
-        <v>0.9820627656692977</v>
+        <v>0.9820627656701788</v>
       </c>
       <c r="D3">
-        <v>0.1854606667420171</v>
+        <v>0.1854606667418324</v>
       </c>
       <c r="E3">
-        <v>1.284722348510414</v>
+        <v>1.284722348510499</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.017035542002304</v>
+        <v>3.017035542002134</v>
       </c>
       <c r="C4">
-        <v>0.8739869587566602</v>
+        <v>0.873986958756177</v>
       </c>
       <c r="D4">
-        <v>0.1663579281770922</v>
+        <v>0.1663579281768222</v>
       </c>
       <c r="E4">
-        <v>1.14374307713733</v>
+        <v>1.143743077137344</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.106353359805013</v>
+        <v>7.106353359805098</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.872385300524343</v>
+        <v>2.872385300524684</v>
       </c>
       <c r="C5">
-        <v>0.8311004109718283</v>
+        <v>0.8311004109723115</v>
       </c>
       <c r="D5">
-        <v>0.1587362120754534</v>
+        <v>0.1587362120758939</v>
       </c>
       <c r="E5">
-        <v>1.087828261203541</v>
+        <v>1.087828261203612</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.805587502079959</v>
+        <v>6.805587502079931</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -567,19 +567,19 @@
         <v>2.848560680219236</v>
       </c>
       <c r="C6">
-        <v>0.8240415701548613</v>
+        <v>0.8240415701540087</v>
       </c>
       <c r="D6">
-        <v>0.1574795140437288</v>
+        <v>0.1574795140438994</v>
       </c>
       <c r="E6">
-        <v>1.078626479118029</v>
+        <v>1.078626479118014</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.756012979712693</v>
+        <v>6.756012979712722</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.015071254520876</v>
+        <v>3.01507125452099</v>
       </c>
       <c r="C7">
-        <v>0.8734042364998231</v>
+        <v>0.8734042364993684</v>
       </c>
       <c r="D7">
-        <v>0.1662545236261224</v>
+        <v>0.1662545236260655</v>
       </c>
       <c r="E7">
-        <v>1.142983230538377</v>
+        <v>1.142983230538334</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.102271639852063</v>
+        <v>7.102271639852148</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.783409109074512</v>
+        <v>3.783409109074853</v>
       </c>
       <c r="C8">
-        <v>1.102125993534031</v>
+        <v>1.102125993533178</v>
       </c>
       <c r="D8">
-        <v>0.2065027292535007</v>
+        <v>0.2065027292533301</v>
       </c>
       <c r="E8">
-        <v>1.441475824412507</v>
+        <v>1.441475824412549</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.693710729645204</v>
+        <v>8.693710729644977</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.478160036800546</v>
+        <v>5.47816003680083</v>
       </c>
       <c r="C9">
-        <v>1.613181086114366</v>
+        <v>1.613181086114309</v>
       </c>
       <c r="D9">
-        <v>0.2938581653996124</v>
+        <v>0.2938581653998114</v>
       </c>
       <c r="E9">
-        <v>2.110912221132594</v>
+        <v>2.110912221132565</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>12.16940409784101</v>
+        <v>12.16940409784112</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.935019392120239</v>
+        <v>6.93501939212058</v>
       </c>
       <c r="C10">
-        <v>2.060938893100115</v>
+        <v>2.060938893099546</v>
       </c>
       <c r="D10">
-        <v>0.3673210588685976</v>
+        <v>0.3673210588690523</v>
       </c>
       <c r="E10">
-        <v>2.701737739644102</v>
+        <v>2.701737739644017</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>15.11924492300324</v>
+        <v>15.11924492300307</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.679784553986565</v>
+        <v>7.679784553985996</v>
       </c>
       <c r="C11">
-        <v>2.293206643849487</v>
+        <v>2.293206643849089</v>
       </c>
       <c r="D11">
-        <v>0.4042565657129558</v>
+        <v>0.4042565657124726</v>
       </c>
       <c r="E11">
         <v>3.010477684788739</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>16.61303011689097</v>
+        <v>16.61303011689068</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.978616956907672</v>
+        <v>7.978616956907501</v>
       </c>
       <c r="C12">
-        <v>2.387084035979058</v>
+        <v>2.387084035979456</v>
       </c>
       <c r="D12">
-        <v>0.4189530573243587</v>
+        <v>0.4189530573249698</v>
       </c>
       <c r="E12">
-        <v>3.135803767992314</v>
+        <v>3.135803767992343</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>17.2095774302071</v>
+        <v>17.20957743020733</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.913401308661719</v>
+        <v>7.913401308662458</v>
       </c>
       <c r="C13">
-        <v>2.36656264403598</v>
+        <v>2.366562644035525</v>
       </c>
       <c r="D13">
-        <v>0.4157519353275916</v>
+        <v>0.4157519353275489</v>
       </c>
       <c r="E13">
-        <v>3.108378967583604</v>
+        <v>3.108378967583491</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>17.07953068089921</v>
+        <v>17.07953068089927</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.703994604979243</v>
+        <v>7.703994604979528</v>
       </c>
       <c r="C14">
-        <v>2.30079737083264</v>
+        <v>2.300797370832981</v>
       </c>
       <c r="D14">
-        <v>0.4054498873468759</v>
+        <v>0.4054498873467054</v>
       </c>
       <c r="E14">
-        <v>3.020598974390936</v>
+        <v>3.020598974391007</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>16.66142081341809</v>
+        <v>16.66142081341849</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.578108710912488</v>
+        <v>7.578108710912204</v>
       </c>
       <c r="C15">
-        <v>2.261355800703882</v>
+        <v>2.261355800704507</v>
       </c>
       <c r="D15">
-        <v>0.399239816280982</v>
+        <v>0.3992398162810105</v>
       </c>
       <c r="E15">
-        <v>2.968031385390248</v>
+        <v>2.96803138539012</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>16.40968518311081</v>
+        <v>16.40968518311087</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.888371838219541</v>
+        <v>6.888371838219655</v>
       </c>
       <c r="C16">
-        <v>2.046469615768217</v>
+        <v>2.046469615768842</v>
       </c>
       <c r="D16">
-        <v>0.3649933256968154</v>
+        <v>0.3649933256972275</v>
       </c>
       <c r="E16">
-        <v>2.682561972664089</v>
+        <v>2.682561972664146</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>15.02535578269698</v>
+        <v>15.02535578269675</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.489112918163016</v>
+        <v>6.489112918162675</v>
       </c>
       <c r="C17">
-        <v>1.922994111911976</v>
+        <v>1.922994111912544</v>
       </c>
       <c r="D17">
-        <v>0.345002653750484</v>
+        <v>0.345002653750754</v>
       </c>
       <c r="E17">
-        <v>2.519169730056291</v>
+        <v>2.519169730056305</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>14.22020721032294</v>
+        <v>14.22020721032237</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.266792712658457</v>
+        <v>6.266792712658173</v>
       </c>
       <c r="C18">
-        <v>1.854519659255118</v>
+        <v>1.854519659255232</v>
       </c>
       <c r="D18">
-        <v>0.3338194639084406</v>
+        <v>0.3338194639079859</v>
       </c>
       <c r="E18">
-        <v>2.428738549857485</v>
+        <v>2.428738549857457</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.77068739045541</v>
+        <v>13.77068739045549</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.192660636554251</v>
+        <v>6.192660636554876</v>
       </c>
       <c r="C19">
-        <v>1.831730870334241</v>
+        <v>1.831730870334525</v>
       </c>
       <c r="D19">
-        <v>0.3300823320735446</v>
+        <v>0.3300823320741983</v>
       </c>
       <c r="E19">
         <v>2.398669063809933</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>13.62060945120092</v>
+        <v>13.62060945120123</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.530828068368123</v>
+        <v>6.530828068367896</v>
       </c>
       <c r="C20">
-        <v>1.935864511104398</v>
+        <v>1.93586451110383</v>
       </c>
       <c r="D20">
-        <v>0.3470969191421744</v>
+        <v>0.3470969191415207</v>
       </c>
       <c r="E20">
-        <v>2.536180933931703</v>
+        <v>2.536180933931618</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>14.30445897719284</v>
+        <v>14.30445897719281</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.764993071112144</v>
+        <v>7.764993071112031</v>
       </c>
       <c r="C21">
-        <v>2.319934104556239</v>
+        <v>2.319934104555728</v>
       </c>
       <c r="D21">
-        <v>0.4084544381806694</v>
+        <v>0.408454438180442</v>
       </c>
       <c r="E21">
-        <v>3.046124870061504</v>
+        <v>3.046124870061576</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>16.78329607461762</v>
+        <v>16.7832960746174</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.674243487611307</v>
+        <v>8.674243487611477</v>
       </c>
       <c r="C22">
-        <v>2.607188462267402</v>
+        <v>2.607188462268937</v>
       </c>
       <c r="D22">
-        <v>0.4528791249925632</v>
+        <v>0.4528791249926485</v>
       </c>
       <c r="E22">
-        <v>3.431051863705818</v>
+        <v>3.431051863705875</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>18.59173977862559</v>
+        <v>18.59173977862542</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.177100109882701</v>
+        <v>8.177100109882929</v>
       </c>
       <c r="C23">
-        <v>2.449659116264343</v>
+        <v>2.449659116264854</v>
       </c>
       <c r="D23">
-        <v>0.4286742317610219</v>
+        <v>0.4286742317604535</v>
       </c>
       <c r="E23">
-        <v>3.219532772076377</v>
+        <v>3.219532772076406</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>17.6048851648149</v>
+        <v>17.60488516481468</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.511946499448015</v>
+        <v>6.511946499448186</v>
       </c>
       <c r="C24">
-        <v>1.930038096668284</v>
+        <v>1.930038096668738</v>
       </c>
       <c r="D24">
-        <v>0.3461491508489729</v>
+        <v>0.3461491508486034</v>
       </c>
       <c r="E24">
-        <v>2.528479427671741</v>
+        <v>2.52847942767167</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>14.26632771500786</v>
+        <v>14.26632771500792</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.99142659453122</v>
+        <v>4.991426594531276</v>
       </c>
       <c r="C25">
-        <v>1.46539336493197</v>
+        <v>1.465393364931515</v>
       </c>
       <c r="D25">
-        <v>0.2689729851529279</v>
+        <v>0.2689729851529847</v>
       </c>
       <c r="E25">
-        <v>1.916886415319425</v>
+        <v>1.916886415319482</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>11.17598087331507</v>
+        <v>11.17598087331498</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.001696415322044</v>
+        <v>3.999748928224335</v>
       </c>
       <c r="C2">
-        <v>1.167418182946875</v>
+        <v>1.166499340049597</v>
       </c>
       <c r="D2">
-        <v>0.2178646772729991</v>
+        <v>0.2178144432105853</v>
       </c>
       <c r="E2">
-        <v>1.526789664574878</v>
+        <v>1.526392866681689</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>9.14402302251878</v>
+        <v>3.007541463730576</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.084249969184299</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -444,31 +447,34 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.380767998449926</v>
+        <v>3.379465810581564</v>
       </c>
       <c r="C3">
-        <v>0.9820627656701788</v>
+        <v>0.9814196921730058</v>
       </c>
       <c r="D3">
-        <v>0.1854606667418324</v>
+        <v>0.1854271903357869</v>
       </c>
       <c r="E3">
-        <v>1.284722348510499</v>
+        <v>1.284462096276087</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.860997262485341</v>
+        <v>2.578273710371434</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.239007678517879</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -482,31 +488,34 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.017035542002134</v>
+        <v>3.016053562127183</v>
       </c>
       <c r="C4">
-        <v>0.873986958756177</v>
+        <v>0.8734842880971314</v>
       </c>
       <c r="D4">
-        <v>0.1663579281768222</v>
+        <v>0.1663326054388961</v>
       </c>
       <c r="E4">
-        <v>1.143743077137344</v>
+        <v>1.143547747344314</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.106353359805098</v>
+        <v>2.325693529972455</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.741905129537059</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -520,31 +529,34 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.872385300524684</v>
+        <v>2.871518942563796</v>
       </c>
       <c r="C5">
-        <v>0.8311004109723115</v>
+        <v>0.830649320004369</v>
       </c>
       <c r="D5">
-        <v>0.1587362120758939</v>
+        <v>0.1587138063684819</v>
       </c>
       <c r="E5">
-        <v>1.087828261203612</v>
+        <v>1.087655897991695</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.805587502079931</v>
+        <v>2.225004647275028</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.543797353729445</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -558,31 +570,34 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.848560680219236</v>
+        <v>2.847712726950249</v>
       </c>
       <c r="C6">
-        <v>0.8240415701540087</v>
+        <v>0.8235987435228651</v>
       </c>
       <c r="D6">
-        <v>0.1574795140438994</v>
+        <v>0.1574575713745077</v>
       </c>
       <c r="E6">
-        <v>1.078626479118014</v>
+        <v>1.078457748514168</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.756012979712722</v>
+        <v>2.208407040813569</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.511144620722376</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -596,31 +611,34 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.01507125452099</v>
+        <v>3.014090889344061</v>
       </c>
       <c r="C7">
-        <v>0.8734042364993684</v>
+        <v>0.8729022824261961</v>
       </c>
       <c r="D7">
-        <v>0.1662545236260655</v>
+        <v>0.1662292417236415</v>
       </c>
       <c r="E7">
-        <v>1.142983230538334</v>
+        <v>1.142788223220208</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.102271639852148</v>
+        <v>2.324327160760674</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.739216531610253</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -634,31 +652,34 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.783409109074853</v>
+        <v>3.781702848139275</v>
       </c>
       <c r="C8">
-        <v>1.102125993533178</v>
+        <v>1.101309375253607</v>
       </c>
       <c r="D8">
-        <v>0.2065027292533301</v>
+        <v>0.2064588085002583</v>
       </c>
       <c r="E8">
-        <v>1.441475824412549</v>
+        <v>1.441130937815657</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.693710729644977</v>
+        <v>2.856900106502252</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.787580790558394</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -672,31 +693,34 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.47816003680083</v>
+        <v>5.474145302849365</v>
       </c>
       <c r="C9">
-        <v>1.613181086114309</v>
+        <v>1.611409422036388</v>
       </c>
       <c r="D9">
-        <v>0.2938581653998114</v>
+        <v>0.2937518332620641</v>
       </c>
       <c r="E9">
-        <v>2.110912221132565</v>
+        <v>2.110032481073532</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>12.16940409784112</v>
+        <v>4.019078967155423</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.077461083222488</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -710,31 +734,34 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.93501939212058</v>
+        <v>6.928110264384429</v>
       </c>
       <c r="C10">
-        <v>2.060938893099546</v>
+        <v>2.058006112535338</v>
       </c>
       <c r="D10">
-        <v>0.3673210588690523</v>
+        <v>0.3671317452796217</v>
       </c>
       <c r="E10">
-        <v>2.701737739644017</v>
+        <v>2.700084016888098</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>15.11924492300307</v>
+        <v>5.004547395628151</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10.02064249357153</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -748,31 +775,34 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.679784553985996</v>
+        <v>7.67099399641711</v>
       </c>
       <c r="C11">
-        <v>2.293206643849089</v>
+        <v>2.289528834665191</v>
       </c>
       <c r="D11">
-        <v>0.4042565657124726</v>
+        <v>0.4040113190864645</v>
       </c>
       <c r="E11">
-        <v>3.010477684788739</v>
+        <v>3.008268211763493</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>16.61303011689068</v>
+        <v>5.50327593908753</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.00440041891397</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -786,31 +816,34 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.978616956907501</v>
+        <v>7.968981388190002</v>
       </c>
       <c r="C12">
-        <v>2.387084035979456</v>
+        <v>2.383073184861757</v>
       </c>
       <c r="D12">
-        <v>0.4189530573249698</v>
+        <v>0.4186822812554283</v>
       </c>
       <c r="E12">
-        <v>3.135803767992343</v>
+        <v>3.133332370757444</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>17.20957743020733</v>
+        <v>5.702382155137343</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.39719486492936</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -824,31 +857,34 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.913401308662458</v>
+        <v>7.903954877901754</v>
       </c>
       <c r="C13">
-        <v>2.366562644035525</v>
+        <v>2.362626266156212</v>
       </c>
       <c r="D13">
-        <v>0.4157519353275489</v>
+        <v>0.4154868935640508</v>
       </c>
       <c r="E13">
-        <v>3.108378967583491</v>
+        <v>3.105966837092041</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>17.07953068089927</v>
+        <v>5.658980366074672</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.31157005808757</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -862,31 +898,34 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.703994604979528</v>
+        <v>7.695137618634249</v>
       </c>
       <c r="C14">
-        <v>2.300797370832981</v>
+        <v>2.297093349441752</v>
       </c>
       <c r="D14">
-        <v>0.4054498873467054</v>
+        <v>0.4052026423167092</v>
       </c>
       <c r="E14">
-        <v>3.020598974391007</v>
+        <v>3.01836917985527</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>16.66142081341849</v>
+        <v>5.519428402148492</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.03626480382843</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -900,31 +939,34 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.578108710912204</v>
+        <v>7.569593344676832</v>
       </c>
       <c r="C15">
-        <v>2.261355800704507</v>
+        <v>2.257786639769279</v>
       </c>
       <c r="D15">
-        <v>0.3992398162810105</v>
+        <v>0.3990028322228341</v>
       </c>
       <c r="E15">
-        <v>2.96803138539012</v>
+        <v>2.965905600817621</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>16.40968518311087</v>
+        <v>5.435398276686215</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.87049840555454</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -938,31 +980,34 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.888371838219655</v>
+        <v>6.881570683910525</v>
       </c>
       <c r="C16">
-        <v>2.046469615768842</v>
+        <v>2.043579770712086</v>
       </c>
       <c r="D16">
-        <v>0.3649933256972275</v>
+        <v>0.3648071798649255</v>
       </c>
       <c r="E16">
-        <v>2.682561972664146</v>
+        <v>2.680938946800353</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>15.02535578269675</v>
+        <v>4.97319357973555</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.958802866762994</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -976,31 +1021,34 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.489112918162675</v>
+        <v>6.483191980291963</v>
       </c>
       <c r="C17">
-        <v>1.922994111912544</v>
+        <v>1.920455188168546</v>
       </c>
       <c r="D17">
-        <v>0.345002653750754</v>
+        <v>0.3448421408738511</v>
       </c>
       <c r="E17">
-        <v>2.519169730056305</v>
+        <v>2.517791871396895</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>14.22020721032237</v>
+        <v>4.704284716460393</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9.428466429131163</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1014,31 +1062,34 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.266792712658173</v>
+        <v>6.261329199845989</v>
       </c>
       <c r="C18">
-        <v>1.854519659255232</v>
+        <v>1.852163821860529</v>
       </c>
       <c r="D18">
-        <v>0.3338194639079859</v>
+        <v>0.3336721288141575</v>
       </c>
       <c r="E18">
-        <v>2.428738549857457</v>
+        <v>2.427484430035108</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.77068739045549</v>
+        <v>4.554125386569268</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>9.132355863165543</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1052,31 +1103,34 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.192660636554876</v>
+        <v>6.187344664811064</v>
       </c>
       <c r="C19">
-        <v>1.831730870334525</v>
+        <v>1.829434207329484</v>
       </c>
       <c r="D19">
-        <v>0.3300823320741983</v>
+        <v>0.3299392251700084</v>
       </c>
       <c r="E19">
-        <v>2.398669063809933</v>
+        <v>2.397454304955644</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>13.62060945120123</v>
+        <v>4.50398871501352</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>9.033492760153194</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1090,31 +1144,34 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.530828068367896</v>
+        <v>6.524818751652958</v>
       </c>
       <c r="C20">
-        <v>1.93586451110383</v>
+        <v>1.93329027430218</v>
       </c>
       <c r="D20">
-        <v>0.3470969191415207</v>
+        <v>0.3469338485325011</v>
       </c>
       <c r="E20">
-        <v>2.536180933931618</v>
+        <v>2.534778874273613</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>14.30445897719281</v>
+        <v>4.732426463199602</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>9.483963789088477</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1128,31 +1185,34 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.764993071112031</v>
+        <v>7.755967152586663</v>
       </c>
       <c r="C21">
-        <v>2.319934104555728</v>
+        <v>2.316163448641078</v>
       </c>
       <c r="D21">
-        <v>0.408454438180442</v>
+        <v>0.4082021043923305</v>
       </c>
       <c r="E21">
-        <v>3.046124870061576</v>
+        <v>3.043843188225182</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>16.7832960746174</v>
+        <v>5.560108415354591</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.11651613133256</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1166,31 +1226,34 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.674243487611477</v>
+        <v>8.662412658596338</v>
       </c>
       <c r="C22">
-        <v>2.607188462268937</v>
+        <v>2.602315737954257</v>
       </c>
       <c r="D22">
-        <v>0.4528791249926485</v>
+        <v>0.4525410241064378</v>
       </c>
       <c r="E22">
-        <v>3.431051863705875</v>
+        <v>3.427866536559321</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>18.59173977862542</v>
+        <v>6.163548952488895</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.30707391893066</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1204,31 +1267,34 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.177100109882929</v>
+        <v>8.166872023290409</v>
       </c>
       <c r="C23">
-        <v>2.449659116264854</v>
+        <v>2.445415203887364</v>
       </c>
       <c r="D23">
-        <v>0.4286742317604535</v>
+        <v>0.4283854201942177</v>
       </c>
       <c r="E23">
-        <v>3.219532772076406</v>
+        <v>3.216873359945367</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>17.60488516481468</v>
+        <v>5.83430094462085</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.65745695404786</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1242,31 +1308,34 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.511946499448186</v>
+        <v>6.505977287021381</v>
       </c>
       <c r="C24">
-        <v>1.930038096668738</v>
+        <v>1.927479881787008</v>
       </c>
       <c r="D24">
-        <v>0.3461491508486034</v>
+        <v>0.3459872413375393</v>
       </c>
       <c r="E24">
-        <v>2.52847942767167</v>
+        <v>2.527088361534339</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>14.26632771500792</v>
+        <v>4.719689951850057</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.458846461921155</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1280,31 +1349,34 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.991426594531276</v>
+        <v>4.988180968658469</v>
       </c>
       <c r="C25">
-        <v>1.465393364931515</v>
+        <v>1.463935435571443</v>
       </c>
       <c r="D25">
-        <v>0.2689729851529847</v>
+        <v>0.2688878993781714</v>
       </c>
       <c r="E25">
-        <v>1.916886415319482</v>
+        <v>1.916193867536862</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>11.17598087331498</v>
+        <v>3.687023955359194</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.422968935507555</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,31 +409,37 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.999748928224335</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.166499340049597</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2178144432105853</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.526392866681689</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.007541463730576</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.084249969184299</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,31 +456,37 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.379465810581564</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.9814196921730058</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1854271903357869</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.284462096276087</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.578273710371434</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.239007678517879</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -491,31 +503,37 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.016053562127183</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.8734842880971314</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1663326054388961</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.143547747344314</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.325693529972455</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4.741905129537059</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -532,31 +550,37 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.871518942563796</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.830649320004369</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1587138063684819</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.087655897991695</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.225004647275028</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4.543797353729445</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -573,31 +597,37 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.847712726950249</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.8235987435228651</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1574575713745077</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.078457748514168</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.208407040813569</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>4.511144620722376</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -614,31 +644,37 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.014090889344061</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.8729022824261961</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1662292417236415</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1.142788223220208</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.324327160760674</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>4.739216531610253</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -655,31 +691,37 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.781702848139275</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.101309375253607</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2064588085002583</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1.441130937815657</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.856900106502252</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>5.787580790558394</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -696,31 +738,37 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.474145302849365</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.611409422036388</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2937518332620641</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2.110032481073532</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4.019078967155423</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>8.077461083222488</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -737,31 +785,37 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.928110264384429</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.058006112535338</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3671317452796217</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2.700084016888098</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5.004547395628151</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>10.02064249357153</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -778,31 +832,37 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.67099399641711</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2.289528834665191</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4040113190864645</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>3.008268211763493</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.50327593908753</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>11.00440041891397</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -819,31 +879,37 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.968981388190002</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2.383073184861757</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4186822812554283</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>3.133332370757444</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.702382155137343</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>11.39719486492936</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -860,31 +926,37 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.903954877901754</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2.362626266156212</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4154868935640508</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>3.105966837092041</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.658980366074672</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>11.31157005808757</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -901,31 +973,37 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.695137618634249</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2.297093349441752</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4052026423167092</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>3.01836917985527</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.519428402148492</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>11.03626480382843</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -942,31 +1020,37 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.569593344676832</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2.257786639769279</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3990028322228341</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>2.965905600817621</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>5.435398276686215</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>10.87049840555454</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -983,31 +1067,37 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.881570683910525</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>2.043579770712086</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3648071798649255</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2.680938946800353</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.97319357973555</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>9.958802866762994</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1024,31 +1114,37 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.483191980291963</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1.920455188168546</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3448421408738511</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2.517791871396895</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.704284716460393</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>9.428466429131163</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1065,31 +1161,37 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.261329199845989</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1.852163821860529</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3336721288141575</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>2.427484430035108</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.554125386569268</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>9.132355863165543</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1106,31 +1208,37 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.187344664811064</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1.829434207329484</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3299392251700084</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2.397454304955644</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.50398871501352</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>9.033492760153194</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1147,31 +1255,37 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.524818751652958</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1.93329027430218</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3469338485325011</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2.534778874273613</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.732426463199602</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>9.483963789088477</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1188,31 +1302,37 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.755967152586663</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2.316163448641078</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4082021043923305</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>3.043843188225182</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.560108415354591</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>11.11651613133256</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1229,31 +1349,37 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.662412658596338</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>2.602315737954257</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4525410241064378</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>3.427866536559321</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>6.163548952488895</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>12.30707391893066</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1270,31 +1396,37 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.166872023290409</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>2.445415203887364</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4283854201942177</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>3.216873359945367</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.83430094462085</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>11.65745695404786</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1311,31 +1443,37 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.505977287021381</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1.927479881787008</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3459872413375393</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>2.527088361534339</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.719689951850057</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>9.458846461921155</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1352,31 +1490,37 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.988180968658469</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1.463935435571443</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2688878993781714</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1.916193867536862</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.687023955359194</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>7.422968935507555</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.985575977245901</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.2511525720602208</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.4050369977161523</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1375700752269537</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.187414546533816</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.7935859398649256</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.717448766277073</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.05335128562762748</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.208464451334152</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.4538932226610939</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.360526615572617</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.8563354942677961</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.2194523532050852</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.3720748019721611</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.1276212535030687</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.132816643956261</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.7761424200853497</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.701818662621271</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.05044553339029889</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.051165271322901</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.4016098188151815</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.403694109920465</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.7777096893861142</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.2002732870589767</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.3523637448260928</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.1216968199148702</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.101331512598563</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.7665872423578861</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.6933610363948901</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.04873457009444238</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9555958645974272</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3700040847632948</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.431771585003609</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.7458293025738101</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.1925213948695017</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.3444549487418556</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.1193258694838448</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.088982771466533</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.7629699383249147</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.6901865647194683</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.04805466086230936</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.9168747073865973</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.3572377182272248</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.443596837278029</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.7405446256958328</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.1912378260801262</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.343148909348912</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.1189347058811734</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.086960500511879</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.7623855956148446</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6896754740747681</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.04794277835194549</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.9104577693316855</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.3551243851501624</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.445583235656265</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.7772791196664173</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.2001684943943332</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.3522565951552394</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.1216646729566904</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.101163062119767</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.7665373564095432</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.6933171411337256</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.04872533184270367</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.9550727889693462</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.3698314694712508</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.431929527148888</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.9408484320018715</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.240158242753381</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.3935564049873221</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.1340996222812905</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.168147005487597</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.7873229583396864</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.7118140862967621</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.05233352217909371</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.153998431445416</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.4357556269274667</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.375076979435747</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.268507686418275</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.3212277913805792</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.4791778479942366</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.1600925871907712</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.317171245016581</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.8379286877761984</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.7578253313160701</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0600424097134109</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.553624294428886</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.5695399443250651</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.276642227130758</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.515146495040511</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.3829952483058037</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.545579390697867</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.1803915175773554</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.439686733760823</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.8821346020825445</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.7986184074076377</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.06617162133652243</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.855311752190886</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.6714392962733768</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.213142700558144</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.629046859937375</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.4117189316241081</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.5767099263821365</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.1899410957038228</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.498802419683301</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.9040211804808393</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.8189505914683863</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.06908046273122892</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.994867479273466</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.7187896070007653</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.186382243527675</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.672460462328104</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.4226990590879609</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.5886460314624742</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.1936075658278327</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.521724950879189</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.912587591564062</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.8269286821680808</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.07020108675064307</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.048097156359489</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.7368822375455721</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.17657417241783</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.663097397500223</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.4203294840205842</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.5860685618872026</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.1928156084071944</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.516763453973624</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.9107298908919574</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.8251976644308812</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.06995886065884349</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.036615318840006</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.7329781371912958</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.178671701984754</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.632612646941539</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.4126201273165861</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.5776888686363577</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.1902417017333704</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.50067720950949</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.9047202253116211</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.8196012255891958</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.06917226350617511</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.999238740287325</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.7202747355819312</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.185568683175632</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.613977740182065</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.4079117614243728</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.5725757529448572</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.1886718063339359</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.490895384801775</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.9010761078425844</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.8162102770394526</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.06869299361306247</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.976395934528341</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.7125152350813977</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.189836297826332</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.507740206536852</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.3811317693671299</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.5435647649985356</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.1797741864483697</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.435895649184118</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.880741932569947</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.7973273311766178</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.06598409618540302</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.846242230959831</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.6683664574326613</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.214935991080729</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.443028511579712</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.364872266324852</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.5260142542936421</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.1743999313436717</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.40305586722846</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.8687383788590637</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.7862139731324262</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.06435437689368939</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.767024549279569</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.6415505826446619</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.230891864128452</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.405965955630904</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.3555782336512152</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.5160056919098679</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.1713381806079042</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.384482430761636</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.8620000320061649</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.7799874313481894</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.06342824546638326</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.721675444827127</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.6262193010705843</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.240268058946995</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.393443252848414</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.3524410146935111</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.5126313112077128</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.1703064283623874</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.378246450558862</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.8597463520065958</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.7779069865381985</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.06311655261372096</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.706356464989341</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.6210437307830574</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.243476245830323</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.449900581667663</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.3665970235846601</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.5278735298648769</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.1749689553848484</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.406518752755233</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.8699988607735918</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.7873797101196658</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.06452668773412285</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.775434827871862</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.6443954732854635</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.229172621309701</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.641558791361149</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.4148816432083038</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.5801460564103422</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.190996315572697</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.505387140063675</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.9064776601048266</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.8212372730386477</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.06940277270442863</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.010206334500594</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.7240014741716081</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.183533870381027</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.768481937113734</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.4470463710498223</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.6151775975448857</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.2017666219246976</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.573158388894512</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.9319537989878484</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.8450022824672487</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.07270189415976347</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.165901710407979</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.7769834547866168</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.155614343401567</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.700575317676822</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.4298191396721052</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.5963959166841164</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.1959895374395089</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.536681081438331</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.9181989645933015</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.8321603337714478</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.07093018880259194</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.082579818929077</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.7486119028127831</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.170333885121053</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.446793282175832</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.3658170943191976</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.5270326987491671</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.1747116128279416</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.404952230988556</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.8694284919681934</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.7868521754769375</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.06444875244533677</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.771631939754542</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.6431090332527347</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.229949260319913</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.178960946538808</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.2989547027398771</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.4554529157777267</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.1528668332301955</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.274742756146424</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.8230838211756293</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.7442320048555331</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.05788134285259261</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.444270882286503</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.5327805391017506</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.301789358712831</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.985575977245901</v>
+        <v>0.5603230236742718</v>
       </c>
       <c r="C2">
-        <v>0.2511525720602208</v>
+        <v>0.1735613149463688</v>
       </c>
       <c r="D2">
-        <v>0.4050369977161523</v>
+        <v>0.605397865688289</v>
       </c>
       <c r="E2">
-        <v>0.1375700752269537</v>
+        <v>0.2248957411965691</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.187414546533816</v>
+        <v>1.827928899758618</v>
       </c>
       <c r="H2">
-        <v>0.7935859398649256</v>
+        <v>1.585733382079042</v>
       </c>
       <c r="I2">
-        <v>0.717448766277073</v>
+        <v>1.299312586894857</v>
       </c>
       <c r="J2">
-        <v>0.05335128562762748</v>
+        <v>0.1010246523313292</v>
       </c>
       <c r="K2">
-        <v>1.208464451334152</v>
+        <v>0.7238254563052351</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4538932226610939</v>
+        <v>0.4283839459954351</v>
       </c>
       <c r="N2">
-        <v>1.360526615572617</v>
+        <v>2.677684805392005</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8563354942677961</v>
+        <v>0.5275487372977636</v>
       </c>
       <c r="C3">
-        <v>0.2194523532050852</v>
+        <v>0.1661058282110872</v>
       </c>
       <c r="D3">
-        <v>0.3720748019721611</v>
+        <v>0.6003746456235888</v>
       </c>
       <c r="E3">
-        <v>0.1276212535030687</v>
+        <v>0.2236264274368729</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.132816643956261</v>
+        <v>1.823640456781405</v>
       </c>
       <c r="H3">
-        <v>0.7761424200853497</v>
+        <v>1.589033429581221</v>
       </c>
       <c r="I3">
-        <v>0.701818662621271</v>
+        <v>1.301685517700349</v>
       </c>
       <c r="J3">
-        <v>0.05044553339029889</v>
+        <v>0.1008446484672731</v>
       </c>
       <c r="K3">
-        <v>1.051165271322901</v>
+        <v>0.6846736824159905</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4016098188151815</v>
+        <v>0.4170279941517094</v>
       </c>
       <c r="N3">
-        <v>1.403694109920465</v>
+        <v>2.696603945128501</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7777096893861142</v>
+        <v>0.5077129616831826</v>
       </c>
       <c r="C4">
-        <v>0.2002732870589767</v>
+        <v>0.1616269454579964</v>
       </c>
       <c r="D4">
-        <v>0.3523637448260928</v>
+        <v>0.5975704282415251</v>
       </c>
       <c r="E4">
-        <v>0.1216968199148702</v>
+        <v>0.2229466068047294</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.101331512598563</v>
+        <v>1.821889979805277</v>
       </c>
       <c r="H4">
-        <v>0.7665872423578861</v>
+        <v>1.591661091706257</v>
       </c>
       <c r="I4">
-        <v>0.6933610363948901</v>
+        <v>1.303680209156212</v>
       </c>
       <c r="J4">
-        <v>0.04873457009444238</v>
+        <v>0.1007749079319673</v>
       </c>
       <c r="K4">
-        <v>0.9555958645974272</v>
+        <v>0.6610188743377989</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3700040847632948</v>
+        <v>0.4102842353495149</v>
       </c>
       <c r="N4">
-        <v>1.431771585003609</v>
+        <v>2.70895380723092</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7458293025738101</v>
+        <v>0.4997022907425048</v>
       </c>
       <c r="C5">
-        <v>0.1925213948695017</v>
+        <v>0.1598265915468318</v>
       </c>
       <c r="D5">
-        <v>0.3444549487418556</v>
+        <v>0.5964981816095047</v>
       </c>
       <c r="E5">
-        <v>0.1193258694838448</v>
+        <v>0.2226946274598944</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.088982771466533</v>
+        <v>1.821398471675678</v>
       </c>
       <c r="H5">
-        <v>0.7629699383249147</v>
+        <v>1.592883187622647</v>
       </c>
       <c r="I5">
-        <v>0.6901865647194683</v>
+        <v>1.304628259855946</v>
       </c>
       <c r="J5">
-        <v>0.04805466086230936</v>
+        <v>0.1007567503565738</v>
       </c>
       <c r="K5">
-        <v>0.9168747073865973</v>
+        <v>0.6514762080888659</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3572377182272248</v>
+        <v>0.4075937102281628</v>
       </c>
       <c r="N5">
-        <v>1.443596837278029</v>
+        <v>2.714170855463337</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7405446256958328</v>
+        <v>0.4983765140726177</v>
       </c>
       <c r="C6">
-        <v>0.1912378260801262</v>
+        <v>0.1595291430648018</v>
       </c>
       <c r="D6">
-        <v>0.343148909348912</v>
+        <v>0.5963243957114486</v>
       </c>
       <c r="E6">
-        <v>0.1189347058811734</v>
+        <v>0.2226543002882977</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.086960500511879</v>
+        <v>1.82133025133237</v>
       </c>
       <c r="H6">
-        <v>0.7623855956148446</v>
+        <v>1.593095256121558</v>
       </c>
       <c r="I6">
-        <v>0.6896754740747681</v>
+        <v>1.304793848260616</v>
       </c>
       <c r="J6">
-        <v>0.04794277835194549</v>
+        <v>0.1007543553348818</v>
       </c>
       <c r="K6">
-        <v>0.9104577693316855</v>
+        <v>0.649897510691261</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3551243851501624</v>
+        <v>0.4071504321850981</v>
       </c>
       <c r="N6">
-        <v>1.445583235656265</v>
+        <v>2.715048277024444</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7772791196664173</v>
+        <v>0.5076046328700556</v>
       </c>
       <c r="C7">
-        <v>0.2001684943943332</v>
+        <v>0.1616025647584962</v>
       </c>
       <c r="D7">
-        <v>0.3522565951552394</v>
+        <v>0.597555682021337</v>
       </c>
       <c r="E7">
-        <v>0.1216646729566904</v>
+        <v>0.2229431070542915</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.101163062119767</v>
+        <v>1.821882453158665</v>
       </c>
       <c r="H7">
-        <v>0.7665373564095432</v>
+        <v>1.591676960613754</v>
       </c>
       <c r="I7">
-        <v>0.6933171411337256</v>
+        <v>1.303692447508567</v>
       </c>
       <c r="J7">
-        <v>0.04872533184270367</v>
+        <v>0.1007746214909666</v>
       </c>
       <c r="K7">
-        <v>0.9550727889693462</v>
+        <v>0.6608897862005279</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3698314694712508</v>
+        <v>0.4102477166304368</v>
       </c>
       <c r="N7">
-        <v>1.431929527148888</v>
+        <v>2.709023419696763</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9408484320018715</v>
+        <v>0.5489628354484637</v>
       </c>
       <c r="C8">
-        <v>0.240158242753381</v>
+        <v>0.1709701382410174</v>
       </c>
       <c r="D8">
-        <v>0.3935564049873221</v>
+        <v>0.6036077724654945</v>
       </c>
       <c r="E8">
-        <v>0.1340996222812905</v>
+        <v>0.2244374339084452</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.168147005487597</v>
+        <v>1.826266971429504</v>
       </c>
       <c r="H8">
-        <v>0.7873229583396864</v>
+        <v>1.586746453241744</v>
       </c>
       <c r="I8">
-        <v>0.7118140862967621</v>
+        <v>1.300019163559327</v>
       </c>
       <c r="J8">
-        <v>0.05233352217909371</v>
+        <v>0.100954126555024</v>
       </c>
       <c r="K8">
-        <v>1.153998431445416</v>
+        <v>0.7102461976388952</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4357556269274667</v>
+        <v>0.4244209531544456</v>
       </c>
       <c r="N8">
-        <v>1.375076979435747</v>
+        <v>2.684055872100856</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.268507686418275</v>
+        <v>0.6323452151850404</v>
       </c>
       <c r="C9">
-        <v>0.3212277913805792</v>
+        <v>0.1901261289135903</v>
       </c>
       <c r="D9">
-        <v>0.4791778479942366</v>
+        <v>0.6176962696306418</v>
       </c>
       <c r="E9">
-        <v>0.1600925871907712</v>
+        <v>0.2281570777805619</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.317171245016581</v>
+        <v>1.841876694645777</v>
       </c>
       <c r="H9">
-        <v>0.8379286877761984</v>
+        <v>1.581847813760021</v>
       </c>
       <c r="I9">
-        <v>0.7578253313160701</v>
+        <v>1.297083946432132</v>
       </c>
       <c r="J9">
-        <v>0.0600424097134109</v>
+        <v>0.1016295415679132</v>
       </c>
       <c r="K9">
-        <v>1.553624294428886</v>
+        <v>0.8100838149889569</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5695399443250651</v>
+        <v>0.4540294458696224</v>
       </c>
       <c r="N9">
-        <v>1.276642227130758</v>
+        <v>2.640915860416008</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.515146495040511</v>
+        <v>0.6949970942623622</v>
       </c>
       <c r="C10">
-        <v>0.3829952483058037</v>
+        <v>0.2046840274214787</v>
       </c>
       <c r="D10">
-        <v>0.545579390697867</v>
+        <v>0.6294002854225198</v>
       </c>
       <c r="E10">
-        <v>0.1803915175773554</v>
+        <v>0.2313709314666355</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.439686733760823</v>
+        <v>1.857635192880053</v>
       </c>
       <c r="H10">
-        <v>0.8821346020825445</v>
+        <v>1.581155898359185</v>
       </c>
       <c r="I10">
-        <v>0.7986184074076377</v>
+        <v>1.297533289970211</v>
       </c>
       <c r="J10">
-        <v>0.06617162133652243</v>
+        <v>0.1023228685515178</v>
       </c>
       <c r="K10">
-        <v>1.855311752190886</v>
+        <v>0.8853008053823146</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6714392962733768</v>
+        <v>0.4768909024598855</v>
       </c>
       <c r="N10">
-        <v>1.213142700558144</v>
+        <v>2.61277163931819</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.629046859937375</v>
+        <v>0.7238018545711213</v>
       </c>
       <c r="C11">
-        <v>0.4117189316241081</v>
+        <v>0.2114130137195787</v>
       </c>
       <c r="D11">
-        <v>0.5767099263821365</v>
+        <v>0.6350186440384675</v>
       </c>
       <c r="E11">
-        <v>0.1899410957038228</v>
+        <v>0.232937467784879</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.498802419683301</v>
+        <v>1.865739334207376</v>
       </c>
       <c r="H11">
-        <v>0.9040211804808393</v>
+        <v>1.58147236792712</v>
       </c>
       <c r="I11">
-        <v>0.8189505914683863</v>
+        <v>1.298304529494018</v>
       </c>
       <c r="J11">
-        <v>0.06908046273122892</v>
+        <v>0.1026810828952023</v>
       </c>
       <c r="K11">
-        <v>1.994867479273466</v>
+        <v>0.9199262949549336</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7187896070007653</v>
+        <v>0.4875323615314144</v>
       </c>
       <c r="N11">
-        <v>1.186382243527675</v>
+        <v>2.600739592646647</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.672460462328104</v>
+        <v>0.7347531055708885</v>
       </c>
       <c r="C12">
-        <v>0.4226990590879609</v>
+        <v>0.2139764792637493</v>
       </c>
       <c r="D12">
-        <v>0.5886460314624742</v>
+        <v>0.637188434106605</v>
       </c>
       <c r="E12">
-        <v>0.1936075658278327</v>
+        <v>0.2335456967958436</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.521724950879189</v>
+        <v>1.868942916162126</v>
       </c>
       <c r="H12">
-        <v>0.912587591564062</v>
+        <v>1.581682952175299</v>
       </c>
       <c r="I12">
-        <v>0.8269286821680808</v>
+        <v>1.298678145409099</v>
       </c>
       <c r="J12">
-        <v>0.07020108675064307</v>
+        <v>0.1028228833100329</v>
       </c>
       <c r="K12">
-        <v>2.048097156359489</v>
+        <v>0.9330968481421849</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7368822375455721</v>
+        <v>0.4915967417263971</v>
       </c>
       <c r="N12">
-        <v>1.17657417241783</v>
+        <v>2.596294301034142</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.663097397500223</v>
+        <v>0.7323926258861775</v>
       </c>
       <c r="C13">
-        <v>0.4203294840205842</v>
+        <v>0.2134237082166237</v>
       </c>
       <c r="D13">
-        <v>0.5860685618872026</v>
+        <v>0.6367192532859463</v>
       </c>
       <c r="E13">
-        <v>0.1928156084071944</v>
+        <v>0.2334140362311601</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.516763453973624</v>
+        <v>1.86824697268068</v>
       </c>
       <c r="H13">
-        <v>0.9107298908919574</v>
+        <v>1.581633563598984</v>
       </c>
       <c r="I13">
-        <v>0.8251976644308812</v>
+        <v>1.298594052054263</v>
       </c>
       <c r="J13">
-        <v>0.06995886065884349</v>
+        <v>0.1027920704935354</v>
       </c>
       <c r="K13">
-        <v>2.036615318840006</v>
+        <v>0.9302577288497389</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7329781371912958</v>
+        <v>0.4907198628164195</v>
       </c>
       <c r="N13">
-        <v>1.178671701984754</v>
+        <v>2.597246736010575</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.632612646941539</v>
+        <v>0.7247019497434053</v>
       </c>
       <c r="C14">
-        <v>0.4126201273165861</v>
+        <v>0.2116236038936279</v>
       </c>
       <c r="D14">
-        <v>0.5776888686363577</v>
+        <v>0.6351963077566438</v>
       </c>
       <c r="E14">
-        <v>0.1902417017333704</v>
+        <v>0.2329872063091969</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.50067720950949</v>
+        <v>1.866000193729406</v>
       </c>
       <c r="H14">
-        <v>0.9047202253116211</v>
+        <v>1.581487874310483</v>
       </c>
       <c r="I14">
-        <v>0.8196012255891958</v>
+        <v>1.298333632111962</v>
       </c>
       <c r="J14">
-        <v>0.06917226350617511</v>
+        <v>0.1026926256221472</v>
       </c>
       <c r="K14">
-        <v>1.999238740287325</v>
+        <v>0.9210086701788782</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7202747355819312</v>
+        <v>0.4878660456304544</v>
       </c>
       <c r="N14">
-        <v>1.185568683175632</v>
+        <v>2.600371650807865</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.613977740182065</v>
+        <v>0.7199968488710908</v>
       </c>
       <c r="C15">
-        <v>0.4079117614243728</v>
+        <v>0.210522987113734</v>
       </c>
       <c r="D15">
-        <v>0.5725757529448572</v>
+        <v>0.6342689587887662</v>
       </c>
       <c r="E15">
-        <v>0.1886718063339359</v>
+        <v>0.2327277156546188</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.490895384801775</v>
+        <v>1.864641526973486</v>
       </c>
       <c r="H15">
-        <v>0.9010761078425844</v>
+        <v>1.581410452260542</v>
       </c>
       <c r="I15">
-        <v>0.8162102770394526</v>
+        <v>1.298184741102816</v>
       </c>
       <c r="J15">
-        <v>0.06869299361306247</v>
+        <v>0.1026325138616571</v>
       </c>
       <c r="K15">
-        <v>1.976395934528341</v>
+        <v>0.9153509853182413</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7125152350813977</v>
+        <v>0.4861225161497416</v>
       </c>
       <c r="N15">
-        <v>1.189836297826332</v>
+        <v>2.602300208545039</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.507740206536852</v>
+        <v>0.6931207362677867</v>
       </c>
       <c r="C16">
-        <v>0.3811317693671299</v>
+        <v>0.2042464181321577</v>
       </c>
       <c r="D16">
-        <v>0.5435647649985356</v>
+        <v>0.6290390264193206</v>
       </c>
       <c r="E16">
-        <v>0.1797741864483697</v>
+        <v>0.2312706567686575</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.435895649184118</v>
+        <v>1.857124409670149</v>
       </c>
       <c r="H16">
-        <v>0.880741932569947</v>
+        <v>1.581147915976487</v>
       </c>
       <c r="I16">
-        <v>0.7973273311766178</v>
+        <v>1.297494298370296</v>
       </c>
       <c r="J16">
-        <v>0.06598409618540302</v>
+        <v>0.1023003195865044</v>
       </c>
       <c r="K16">
-        <v>1.846242230959831</v>
+        <v>0.883046161971663</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6683664574326613</v>
+        <v>0.4762003158249328</v>
       </c>
       <c r="N16">
-        <v>1.214935991080729</v>
+        <v>2.613573485271864</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.443028511579712</v>
+        <v>0.6767108459025906</v>
       </c>
       <c r="C17">
-        <v>0.364872266324852</v>
+        <v>0.2004232484943032</v>
       </c>
       <c r="D17">
-        <v>0.5260142542936421</v>
+        <v>0.6259059279556709</v>
       </c>
       <c r="E17">
-        <v>0.1743999313436717</v>
+        <v>0.2304035610299238</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.40305586722846</v>
+        <v>1.852752647328685</v>
       </c>
       <c r="H17">
-        <v>0.8687383788590637</v>
+        <v>1.581148511664651</v>
       </c>
       <c r="I17">
-        <v>0.7862139731324262</v>
+        <v>1.297215951426466</v>
       </c>
       <c r="J17">
-        <v>0.06435437689368939</v>
+        <v>0.1021074921959908</v>
       </c>
       <c r="K17">
-        <v>1.767024549279569</v>
+        <v>0.8633328088851044</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6415505826446619</v>
+        <v>0.4701752205503098</v>
       </c>
       <c r="N17">
-        <v>1.230891864128452</v>
+        <v>2.620686811925175</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.405965955630904</v>
+        <v>0.667300947761106</v>
       </c>
       <c r="C18">
-        <v>0.3555782336512152</v>
+        <v>0.1982342874816823</v>
       </c>
       <c r="D18">
-        <v>0.5160056919098679</v>
+        <v>0.624131542129561</v>
       </c>
       <c r="E18">
-        <v>0.1713381806079042</v>
+        <v>0.2299146711009001</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.384482430761636</v>
+        <v>1.850326169240532</v>
       </c>
       <c r="H18">
-        <v>0.8620000320061649</v>
+        <v>1.581208269553287</v>
       </c>
       <c r="I18">
-        <v>0.7799874313481894</v>
+        <v>1.297109203034609</v>
       </c>
       <c r="J18">
-        <v>0.06342824546638326</v>
+        <v>0.1020006133263749</v>
       </c>
       <c r="K18">
-        <v>1.721675444827127</v>
+        <v>0.852032707415816</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6262193010705843</v>
+        <v>0.4667324956056618</v>
       </c>
       <c r="N18">
-        <v>1.240268058946995</v>
+        <v>2.624850762110277</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.393443252848414</v>
+        <v>0.6641198429579447</v>
       </c>
       <c r="C19">
-        <v>0.3524410146935111</v>
+        <v>0.1974948639174272</v>
       </c>
       <c r="D19">
-        <v>0.5126313112077128</v>
+        <v>0.6235355230598429</v>
       </c>
       <c r="E19">
-        <v>0.1703064283623874</v>
+        <v>0.2297508320211463</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.378246450558862</v>
+        <v>1.849519721276806</v>
       </c>
       <c r="H19">
-        <v>0.8597463520065958</v>
+        <v>1.581238707995055</v>
       </c>
       <c r="I19">
-        <v>0.7779069865381985</v>
+        <v>1.297082221046274</v>
       </c>
       <c r="J19">
-        <v>0.06311655261372096</v>
+        <v>0.1019651183340891</v>
       </c>
       <c r="K19">
-        <v>1.706356464989341</v>
+        <v>0.8482133044174134</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6210437307830574</v>
+        <v>0.4655707573870558</v>
       </c>
       <c r="N19">
-        <v>1.243476245830323</v>
+        <v>2.626273061270325</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.449900581667663</v>
+        <v>0.6784547445232647</v>
       </c>
       <c r="C20">
-        <v>0.3665970235846601</v>
+        <v>0.2008291936856494</v>
       </c>
       <c r="D20">
-        <v>0.5278735298648769</v>
+        <v>0.6262365862954766</v>
       </c>
       <c r="E20">
-        <v>0.1749689553848484</v>
+        <v>0.230494846508563</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.406518752755233</v>
+        <v>1.853208915279339</v>
       </c>
       <c r="H20">
-        <v>0.8699988607735918</v>
+        <v>1.581142299180584</v>
       </c>
       <c r="I20">
-        <v>0.7873797101196658</v>
+        <v>1.297240060075261</v>
       </c>
       <c r="J20">
-        <v>0.06452668773412285</v>
+        <v>0.1021276019087907</v>
       </c>
       <c r="K20">
-        <v>1.775434827871862</v>
+        <v>0.8654273458189721</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6443954732854635</v>
+        <v>0.4708142480817656</v>
       </c>
       <c r="N20">
-        <v>1.229172621309701</v>
+        <v>2.619922076282727</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.641558791361149</v>
+        <v>0.7269597085281703</v>
       </c>
       <c r="C21">
-        <v>0.4148816432083038</v>
+        <v>0.212151921510781</v>
       </c>
       <c r="D21">
-        <v>0.5801460564103422</v>
+        <v>0.6356424878607072</v>
       </c>
       <c r="E21">
-        <v>0.190996315572697</v>
+        <v>0.2331121692136051</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.505387140063675</v>
+        <v>1.866656469370525</v>
       </c>
       <c r="H21">
-        <v>0.9064776601048266</v>
+        <v>1.581528204207359</v>
       </c>
       <c r="I21">
-        <v>0.8212372730386477</v>
+        <v>1.298407909686595</v>
       </c>
       <c r="J21">
-        <v>0.06940277270442863</v>
+        <v>0.102721668052304</v>
       </c>
       <c r="K21">
-        <v>2.010206334500594</v>
+        <v>0.9237237529898721</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7240014741716081</v>
+        <v>0.4887033399035516</v>
       </c>
       <c r="N21">
-        <v>1.183533870381027</v>
+        <v>2.59945077448068</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.768481937113734</v>
+        <v>0.7589140366112019</v>
       </c>
       <c r="C22">
-        <v>0.4470463710498223</v>
+        <v>0.2196414307322812</v>
       </c>
       <c r="D22">
-        <v>0.6151775975448857</v>
+        <v>0.6420359668333901</v>
       </c>
       <c r="E22">
-        <v>0.2017666219246976</v>
+        <v>0.2349102564136487</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.573158388894512</v>
+        <v>1.876230563344109</v>
       </c>
       <c r="H22">
-        <v>0.9319537989878484</v>
+        <v>1.582309331362552</v>
       </c>
       <c r="I22">
-        <v>0.8450022824672487</v>
+        <v>1.299646612430038</v>
       </c>
       <c r="J22">
-        <v>0.07270189415976347</v>
+        <v>0.1031457836283352</v>
       </c>
       <c r="K22">
-        <v>2.165901710407979</v>
+        <v>0.9621654994682274</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7769834547866168</v>
+        <v>0.5005970713155961</v>
       </c>
       <c r="N22">
-        <v>1.155614343401567</v>
+        <v>2.586718553719791</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.700575317676822</v>
+        <v>0.7418362834689844</v>
       </c>
       <c r="C23">
-        <v>0.4298191396721052</v>
+        <v>0.2156359449673175</v>
       </c>
       <c r="D23">
-        <v>0.5963959166841164</v>
+        <v>0.6386011402688041</v>
       </c>
       <c r="E23">
-        <v>0.1959895374395089</v>
+        <v>0.2339425811996989</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.536681081438331</v>
+        <v>1.871048766111983</v>
       </c>
       <c r="H23">
-        <v>0.9181989645933015</v>
+        <v>1.581844041035936</v>
       </c>
       <c r="I23">
-        <v>0.8321603337714478</v>
+        <v>1.298941971641653</v>
       </c>
       <c r="J23">
-        <v>0.07093018880259194</v>
+        <v>0.1029161455166872</v>
       </c>
       <c r="K23">
-        <v>2.082579818929077</v>
+        <v>0.9416172076028033</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7486119028127831</v>
+        <v>0.4942306837960544</v>
       </c>
       <c r="N23">
-        <v>1.170333885121053</v>
+        <v>2.593454739269177</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.446793282175832</v>
+        <v>0.6776662520423429</v>
       </c>
       <c r="C24">
-        <v>0.3658170943191976</v>
+        <v>0.2006456377394272</v>
       </c>
       <c r="D24">
-        <v>0.5270326987491671</v>
+        <v>0.6260870119472486</v>
       </c>
       <c r="E24">
-        <v>0.1747116128279416</v>
+        <v>0.2304535463932851</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.404952230988556</v>
+        <v>1.853002365836659</v>
       </c>
       <c r="H24">
-        <v>0.8694284919681934</v>
+        <v>1.581144922756295</v>
       </c>
       <c r="I24">
-        <v>0.7868521754769375</v>
+        <v>1.297228994596729</v>
       </c>
       <c r="J24">
-        <v>0.06444875244533677</v>
+        <v>0.1021184979095082</v>
       </c>
       <c r="K24">
-        <v>1.771631939754542</v>
+        <v>0.8644803017220681</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6431090332527347</v>
+        <v>0.4705252777494309</v>
       </c>
       <c r="N24">
-        <v>1.229949260319913</v>
+        <v>2.620267581494083</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.178960946538808</v>
+        <v>0.6095439376040872</v>
       </c>
       <c r="C25">
-        <v>0.2989547027398771</v>
+        <v>0.1848592739629566</v>
       </c>
       <c r="D25">
-        <v>0.4554529157777267</v>
+        <v>0.6136472973453806</v>
       </c>
       <c r="E25">
-        <v>0.1528668332301955</v>
+        <v>0.2270663333226537</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.274742756146424</v>
+        <v>1.836901608227592</v>
       </c>
       <c r="H25">
-        <v>0.8230838211756293</v>
+        <v>1.582662453233482</v>
       </c>
       <c r="I25">
-        <v>0.7442320048555331</v>
+        <v>1.297420675768414</v>
       </c>
       <c r="J25">
-        <v>0.05788134285259261</v>
+        <v>0.1014122076022126</v>
       </c>
       <c r="K25">
-        <v>1.444270882286503</v>
+        <v>0.7827478699853998</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5327805391017506</v>
+        <v>0.4458250998053828</v>
       </c>
       <c r="N25">
-        <v>1.301789358712831</v>
+        <v>2.651962983843418</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5603230236742718</v>
+        <v>0.9855759772457873</v>
       </c>
       <c r="C2">
-        <v>0.1735613149463688</v>
+        <v>0.2511525720601071</v>
       </c>
       <c r="D2">
-        <v>0.605397865688289</v>
+        <v>0.4050369977159249</v>
       </c>
       <c r="E2">
-        <v>0.2248957411965691</v>
+        <v>0.1375700752269573</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.827928899758618</v>
+        <v>1.187414546533788</v>
       </c>
       <c r="H2">
-        <v>1.585733382079042</v>
+        <v>0.793585939864812</v>
       </c>
       <c r="I2">
-        <v>1.299312586894857</v>
+        <v>0.7174487662770588</v>
       </c>
       <c r="J2">
-        <v>0.1010246523313292</v>
+        <v>0.05335128562758484</v>
       </c>
       <c r="K2">
-        <v>0.7238254563052351</v>
+        <v>1.208464451334237</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4283839459954351</v>
+        <v>0.4538932226611152</v>
       </c>
       <c r="N2">
-        <v>2.677684805392005</v>
+        <v>1.360526615572596</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5275487372977636</v>
+        <v>0.8563354942676256</v>
       </c>
       <c r="C3">
-        <v>0.1661058282110872</v>
+        <v>0.2194523532049573</v>
       </c>
       <c r="D3">
-        <v>0.6003746456235888</v>
+        <v>0.3720748019722322</v>
       </c>
       <c r="E3">
-        <v>0.2236264274368729</v>
+        <v>0.1276212535030474</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.823640456781405</v>
+        <v>1.132816643956218</v>
       </c>
       <c r="H3">
-        <v>1.589033429581221</v>
+        <v>0.776142420085236</v>
       </c>
       <c r="I3">
-        <v>1.301685517700349</v>
+        <v>0.701818662621271</v>
       </c>
       <c r="J3">
-        <v>0.1008446484672731</v>
+        <v>0.05044553339027402</v>
       </c>
       <c r="K3">
-        <v>0.6846736824159905</v>
+        <v>1.051165271322873</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4170279941517094</v>
+        <v>0.4016098188151673</v>
       </c>
       <c r="N3">
-        <v>2.696603945128501</v>
+        <v>1.403694109920522</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5077129616831826</v>
+        <v>0.7777096893861142</v>
       </c>
       <c r="C4">
-        <v>0.1616269454579964</v>
+        <v>0.2002732870586357</v>
       </c>
       <c r="D4">
-        <v>0.5975704282415251</v>
+        <v>0.3523637448262917</v>
       </c>
       <c r="E4">
-        <v>0.2229466068047294</v>
+        <v>0.1216968199148987</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.821889979805277</v>
+        <v>1.101331512598549</v>
       </c>
       <c r="H4">
-        <v>1.591661091706257</v>
+        <v>0.7665872423578861</v>
       </c>
       <c r="I4">
-        <v>1.303680209156212</v>
+        <v>0.6933610363948759</v>
       </c>
       <c r="J4">
-        <v>0.1007749079319673</v>
+        <v>0.04873457009452409</v>
       </c>
       <c r="K4">
-        <v>0.6610188743377989</v>
+        <v>0.9555958645972567</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4102842353495149</v>
+        <v>0.3700040847633019</v>
       </c>
       <c r="N4">
-        <v>2.70895380723092</v>
+        <v>1.431771585003645</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4997022907425048</v>
+        <v>0.7458293025738953</v>
       </c>
       <c r="C5">
-        <v>0.1598265915468318</v>
+        <v>0.1925213948692743</v>
       </c>
       <c r="D5">
-        <v>0.5964981816095047</v>
+        <v>0.3444549487418698</v>
       </c>
       <c r="E5">
-        <v>0.2226946274598944</v>
+        <v>0.1193258694838057</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.821398471675678</v>
+        <v>1.088982771466547</v>
       </c>
       <c r="H5">
-        <v>1.592883187622647</v>
+        <v>0.7629699383249431</v>
       </c>
       <c r="I5">
-        <v>1.304628259855946</v>
+        <v>0.6901865647194754</v>
       </c>
       <c r="J5">
-        <v>0.1007567503565738</v>
+        <v>0.04805466086221699</v>
       </c>
       <c r="K5">
-        <v>0.6514762080888659</v>
+        <v>0.9168747073865973</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4075937102281628</v>
+        <v>0.357237718227239</v>
       </c>
       <c r="N5">
-        <v>2.714170855463337</v>
+        <v>1.443596837278058</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4983765140726177</v>
+        <v>0.7405446256959465</v>
       </c>
       <c r="C6">
-        <v>0.1595291430648018</v>
+        <v>0.1912378260803393</v>
       </c>
       <c r="D6">
-        <v>0.5963243957114486</v>
+        <v>0.3431489093487983</v>
       </c>
       <c r="E6">
-        <v>0.2226543002882977</v>
+        <v>0.1189347058811734</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.82133025133237</v>
+        <v>1.08696050051185</v>
       </c>
       <c r="H6">
-        <v>1.593095256121558</v>
+        <v>0.7623855956148589</v>
       </c>
       <c r="I6">
-        <v>1.304793848260616</v>
+        <v>0.6896754740747681</v>
       </c>
       <c r="J6">
-        <v>0.1007543553348818</v>
+        <v>0.04794277835192773</v>
       </c>
       <c r="K6">
-        <v>0.649897510691261</v>
+        <v>0.910457769331714</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4071504321850981</v>
+        <v>0.3551243851501624</v>
       </c>
       <c r="N6">
-        <v>2.715048277024444</v>
+        <v>1.445583235656237</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5076046328700556</v>
+        <v>0.7772791196662752</v>
       </c>
       <c r="C7">
-        <v>0.1616025647584962</v>
+        <v>0.2001684943943047</v>
       </c>
       <c r="D7">
-        <v>0.597555682021337</v>
+        <v>0.3522565951552536</v>
       </c>
       <c r="E7">
-        <v>0.2229431070542915</v>
+        <v>0.1216646729566691</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.821882453158665</v>
+        <v>1.101163062119738</v>
       </c>
       <c r="H7">
-        <v>1.591676960613754</v>
+        <v>0.7665373564095006</v>
       </c>
       <c r="I7">
-        <v>1.303692447508567</v>
+        <v>0.6933171411337327</v>
       </c>
       <c r="J7">
-        <v>0.1007746214909666</v>
+        <v>0.04872533184269301</v>
       </c>
       <c r="K7">
-        <v>0.6608897862005279</v>
+        <v>0.9550727889693746</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4102477166304368</v>
+        <v>0.3698314694712366</v>
       </c>
       <c r="N7">
-        <v>2.709023419696763</v>
+        <v>1.43192952714886</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5489628354484637</v>
+        <v>0.9408484320017863</v>
       </c>
       <c r="C8">
-        <v>0.1709701382410174</v>
+        <v>0.2401582427532674</v>
       </c>
       <c r="D8">
-        <v>0.6036077724654945</v>
+        <v>0.3935564049874358</v>
       </c>
       <c r="E8">
-        <v>0.2244374339084452</v>
+        <v>0.1340996222812834</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.826266971429504</v>
+        <v>1.168147005487555</v>
       </c>
       <c r="H8">
-        <v>1.586746453241744</v>
+        <v>0.7873229583398</v>
       </c>
       <c r="I8">
-        <v>1.300019163559327</v>
+        <v>0.7118140862967621</v>
       </c>
       <c r="J8">
-        <v>0.100954126555024</v>
+        <v>0.05233352217897291</v>
       </c>
       <c r="K8">
-        <v>0.7102461976388952</v>
+        <v>1.153998431445444</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4244209531544456</v>
+        <v>0.4357556269274738</v>
       </c>
       <c r="N8">
-        <v>2.684055872100856</v>
+        <v>1.375076979435754</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6323452151850404</v>
+        <v>1.268507686418474</v>
       </c>
       <c r="C9">
-        <v>0.1901261289135903</v>
+        <v>0.3212277913807782</v>
       </c>
       <c r="D9">
-        <v>0.6176962696306418</v>
+        <v>0.4791778479942366</v>
       </c>
       <c r="E9">
-        <v>0.2281570777805619</v>
+        <v>0.1600925871908174</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.841876694645777</v>
+        <v>1.317171245016638</v>
       </c>
       <c r="H9">
-        <v>1.581847813760021</v>
+        <v>0.8379286877761842</v>
       </c>
       <c r="I9">
-        <v>1.297083946432132</v>
+        <v>0.7578253313160559</v>
       </c>
       <c r="J9">
-        <v>0.1016295415679132</v>
+        <v>0.06004240971336117</v>
       </c>
       <c r="K9">
-        <v>0.8100838149889569</v>
+        <v>1.553624294429</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4540294458696224</v>
+        <v>0.5695399443250935</v>
       </c>
       <c r="N9">
-        <v>2.640915860416008</v>
+        <v>1.276642227130779</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6949970942623622</v>
+        <v>1.515146495040511</v>
       </c>
       <c r="C10">
-        <v>0.2046840274214787</v>
+        <v>0.3829952483058321</v>
       </c>
       <c r="D10">
-        <v>0.6294002854225198</v>
+        <v>0.5455793906978954</v>
       </c>
       <c r="E10">
-        <v>0.2313709314666355</v>
+        <v>0.1803915175773767</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.857635192880053</v>
+        <v>1.439686733760823</v>
       </c>
       <c r="H10">
-        <v>1.581155898359185</v>
+        <v>0.8821346020825729</v>
       </c>
       <c r="I10">
-        <v>1.297533289970211</v>
+        <v>0.7986184074076519</v>
       </c>
       <c r="J10">
-        <v>0.1023228685515178</v>
+        <v>0.06617162133663612</v>
       </c>
       <c r="K10">
-        <v>0.8853008053823146</v>
+        <v>1.855311752190943</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4768909024598855</v>
+        <v>0.6714392962733697</v>
       </c>
       <c r="N10">
-        <v>2.61277163931819</v>
+        <v>1.213142700558222</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7238018545711213</v>
+        <v>1.62904685993729</v>
       </c>
       <c r="C11">
-        <v>0.2114130137195787</v>
+        <v>0.4117189316238807</v>
       </c>
       <c r="D11">
-        <v>0.6350186440384675</v>
+        <v>0.5767099263821649</v>
       </c>
       <c r="E11">
-        <v>0.232937467784879</v>
+        <v>0.189941095703837</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.865739334207376</v>
+        <v>1.498802419683329</v>
       </c>
       <c r="H11">
-        <v>1.58147236792712</v>
+        <v>0.9040211804808393</v>
       </c>
       <c r="I11">
-        <v>1.298304529494018</v>
+        <v>0.8189505914683792</v>
       </c>
       <c r="J11">
-        <v>0.1026810828952023</v>
+        <v>0.06908046273112944</v>
       </c>
       <c r="K11">
-        <v>0.9199262949549336</v>
+        <v>1.994867479273381</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4875323615314144</v>
+        <v>0.7187896070007582</v>
       </c>
       <c r="N11">
-        <v>2.600739592646647</v>
+        <v>1.186382243527703</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7347531055708885</v>
+        <v>1.672460462328104</v>
       </c>
       <c r="C12">
-        <v>0.2139764792637493</v>
+        <v>0.4226990590879609</v>
       </c>
       <c r="D12">
-        <v>0.637188434106605</v>
+        <v>0.5886460314623037</v>
       </c>
       <c r="E12">
-        <v>0.2335456967958436</v>
+        <v>0.1936075658278398</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.868942916162126</v>
+        <v>1.521724950879246</v>
       </c>
       <c r="H12">
-        <v>1.581682952175299</v>
+        <v>0.9125875915640336</v>
       </c>
       <c r="I12">
-        <v>1.298678145409099</v>
+        <v>0.8269286821680595</v>
       </c>
       <c r="J12">
-        <v>0.1028228833100329</v>
+        <v>0.0702010867506786</v>
       </c>
       <c r="K12">
-        <v>0.9330968481421849</v>
+        <v>2.048097156359461</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4915967417263971</v>
+        <v>0.7368822375455935</v>
       </c>
       <c r="N12">
-        <v>2.596294301034142</v>
+        <v>1.176574172417872</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7323926258861775</v>
+        <v>1.663097397500394</v>
       </c>
       <c r="C13">
-        <v>0.2134237082166237</v>
+        <v>0.4203294840205842</v>
       </c>
       <c r="D13">
-        <v>0.6367192532859463</v>
+        <v>0.5860685618872878</v>
       </c>
       <c r="E13">
-        <v>0.2334140362311601</v>
+        <v>0.1928156084071446</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.86824697268068</v>
+        <v>1.516763453973653</v>
       </c>
       <c r="H13">
-        <v>1.581633563598984</v>
+        <v>0.9107298908918438</v>
       </c>
       <c r="I13">
-        <v>1.298594052054263</v>
+        <v>0.8251976644309025</v>
       </c>
       <c r="J13">
-        <v>0.1027920704935354</v>
+        <v>0.06995886065878665</v>
       </c>
       <c r="K13">
-        <v>0.9302577288497389</v>
+        <v>2.036615318840035</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4907198628164195</v>
+        <v>0.7329781371912745</v>
       </c>
       <c r="N13">
-        <v>2.597246736010575</v>
+        <v>1.17867170198484</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7247019497434053</v>
+        <v>1.632612646941567</v>
       </c>
       <c r="C14">
-        <v>0.2116236038936279</v>
+        <v>0.4126201273165861</v>
       </c>
       <c r="D14">
-        <v>0.6351963077566438</v>
+        <v>0.5776888686363293</v>
       </c>
       <c r="E14">
-        <v>0.2329872063091969</v>
+        <v>0.1902417017333278</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.866000193729406</v>
+        <v>1.50067720950949</v>
       </c>
       <c r="H14">
-        <v>1.581487874310483</v>
+        <v>0.9047202253117632</v>
       </c>
       <c r="I14">
-        <v>1.298333632111962</v>
+        <v>0.81960122558921</v>
       </c>
       <c r="J14">
-        <v>0.1026926256221472</v>
+        <v>0.06917226350625327</v>
       </c>
       <c r="K14">
-        <v>0.9210086701788782</v>
+        <v>1.999238740287325</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4878660456304544</v>
+        <v>0.7202747355819099</v>
       </c>
       <c r="N14">
-        <v>2.600371650807865</v>
+        <v>1.185568683175646</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7199968488710908</v>
+        <v>1.613977740182037</v>
       </c>
       <c r="C15">
-        <v>0.210522987113734</v>
+        <v>0.4079117614240886</v>
       </c>
       <c r="D15">
-        <v>0.6342689587887662</v>
+        <v>0.5725757529447719</v>
       </c>
       <c r="E15">
-        <v>0.2327277156546188</v>
+        <v>0.1886718063339217</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.864641526973486</v>
+        <v>1.490895384801718</v>
       </c>
       <c r="H15">
-        <v>1.581410452260542</v>
+        <v>0.9010761078425844</v>
       </c>
       <c r="I15">
-        <v>1.298184741102816</v>
+        <v>0.8162102770394526</v>
       </c>
       <c r="J15">
-        <v>0.1026325138616571</v>
+        <v>0.0686929936131051</v>
       </c>
       <c r="K15">
-        <v>0.9153509853182413</v>
+        <v>1.976395934528256</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4861225161497416</v>
+        <v>0.7125152350814119</v>
       </c>
       <c r="N15">
-        <v>2.602300208545039</v>
+        <v>1.189836297826261</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6931207362677867</v>
+        <v>1.507740206536766</v>
       </c>
       <c r="C16">
-        <v>0.2042464181321577</v>
+        <v>0.3811317693671583</v>
       </c>
       <c r="D16">
-        <v>0.6290390264193206</v>
+        <v>0.5435647649984503</v>
       </c>
       <c r="E16">
-        <v>0.2312706567686575</v>
+        <v>0.1797741864483697</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.857124409670149</v>
+        <v>1.435895649184175</v>
       </c>
       <c r="H16">
-        <v>1.581147915976487</v>
+        <v>0.880741932569947</v>
       </c>
       <c r="I16">
-        <v>1.297494298370296</v>
+        <v>0.7973273311765894</v>
       </c>
       <c r="J16">
-        <v>0.1023003195865044</v>
+        <v>0.06598409618545276</v>
       </c>
       <c r="K16">
-        <v>0.883046161971663</v>
+        <v>1.846242230959888</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4762003158249328</v>
+        <v>0.6683664574326897</v>
       </c>
       <c r="N16">
-        <v>2.613573485271864</v>
+        <v>1.214935991080722</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6767108459025906</v>
+        <v>1.443028511579655</v>
       </c>
       <c r="C17">
-        <v>0.2004232484943032</v>
+        <v>0.3648722663249657</v>
       </c>
       <c r="D17">
-        <v>0.6259059279556709</v>
+        <v>0.5260142542938411</v>
       </c>
       <c r="E17">
-        <v>0.2304035610299238</v>
+        <v>0.1743999313436433</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.852752647328685</v>
+        <v>1.403055867228375</v>
       </c>
       <c r="H17">
-        <v>1.581148511664651</v>
+        <v>0.8687383788590637</v>
       </c>
       <c r="I17">
-        <v>1.297215951426466</v>
+        <v>0.7862139731324262</v>
       </c>
       <c r="J17">
-        <v>0.1021074921959908</v>
+        <v>0.06435437689381018</v>
       </c>
       <c r="K17">
-        <v>0.8633328088851044</v>
+        <v>1.767024549279569</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4701752205503098</v>
+        <v>0.6415505826446548</v>
       </c>
       <c r="N17">
-        <v>2.620686811925175</v>
+        <v>1.230891864128509</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.667300947761106</v>
+        <v>1.405965955630933</v>
       </c>
       <c r="C18">
-        <v>0.1982342874816823</v>
+        <v>0.3555782336511015</v>
       </c>
       <c r="D18">
-        <v>0.624131542129561</v>
+        <v>0.5160056919098679</v>
       </c>
       <c r="E18">
-        <v>0.2299146711009001</v>
+        <v>0.1713381806078829</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.850326169240532</v>
+        <v>1.384482430761665</v>
       </c>
       <c r="H18">
-        <v>1.581208269553287</v>
+        <v>0.8620000320062786</v>
       </c>
       <c r="I18">
-        <v>1.297109203034609</v>
+        <v>0.7799874313481894</v>
       </c>
       <c r="J18">
-        <v>0.1020006133263749</v>
+        <v>0.06342824546636905</v>
       </c>
       <c r="K18">
-        <v>0.852032707415816</v>
+        <v>1.721675444827071</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4667324956056618</v>
+        <v>0.6262193010705914</v>
       </c>
       <c r="N18">
-        <v>2.624850762110277</v>
+        <v>1.240268058946995</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6641198429579447</v>
+        <v>1.393443252848385</v>
       </c>
       <c r="C19">
-        <v>0.1974948639174272</v>
+        <v>0.3524410146936532</v>
       </c>
       <c r="D19">
-        <v>0.6235355230598429</v>
+        <v>0.5126313112077128</v>
       </c>
       <c r="E19">
-        <v>0.2297508320211463</v>
+        <v>0.1703064283623448</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.849519721276806</v>
+        <v>1.378246450559004</v>
       </c>
       <c r="H19">
-        <v>1.581238707995055</v>
+        <v>0.8597463520065958</v>
       </c>
       <c r="I19">
-        <v>1.297082221046274</v>
+        <v>0.7779069865382127</v>
       </c>
       <c r="J19">
-        <v>0.1019651183340891</v>
+        <v>0.06311655261379912</v>
       </c>
       <c r="K19">
-        <v>0.8482133044174134</v>
+        <v>1.706356464989284</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4655707573870558</v>
+        <v>0.6210437307830645</v>
       </c>
       <c r="N19">
-        <v>2.626273061270325</v>
+        <v>1.243476245830337</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6784547445232647</v>
+        <v>1.449900581667634</v>
       </c>
       <c r="C20">
-        <v>0.2008291936856494</v>
+        <v>0.3665970235846316</v>
       </c>
       <c r="D20">
-        <v>0.6262365862954766</v>
+        <v>0.5278735298649906</v>
       </c>
       <c r="E20">
-        <v>0.230494846508563</v>
+        <v>0.1749689553848626</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.853208915279339</v>
+        <v>1.406518752755318</v>
       </c>
       <c r="H20">
-        <v>1.581142299180584</v>
+        <v>0.8699988607735918</v>
       </c>
       <c r="I20">
-        <v>1.297240060075261</v>
+        <v>0.7873797101196729</v>
       </c>
       <c r="J20">
-        <v>0.1021276019087907</v>
+        <v>0.06452668773403047</v>
       </c>
       <c r="K20">
-        <v>0.8654273458189721</v>
+        <v>1.775434827871891</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4708142480817656</v>
+        <v>0.644395473285492</v>
       </c>
       <c r="N20">
-        <v>2.619922076282727</v>
+        <v>1.229172621309672</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7269597085281703</v>
+        <v>1.641558791360922</v>
       </c>
       <c r="C21">
-        <v>0.212151921510781</v>
+        <v>0.414881643208588</v>
       </c>
       <c r="D21">
-        <v>0.6356424878607072</v>
+        <v>0.5801460564103706</v>
       </c>
       <c r="E21">
-        <v>0.2331121692136051</v>
+        <v>0.1909963155727183</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.866656469370525</v>
+        <v>1.505387140063675</v>
       </c>
       <c r="H21">
-        <v>1.581528204207359</v>
+        <v>0.9064776601048266</v>
       </c>
       <c r="I21">
-        <v>1.298407909686595</v>
+        <v>0.8212372730386548</v>
       </c>
       <c r="J21">
-        <v>0.102721668052304</v>
+        <v>0.06940277270436468</v>
       </c>
       <c r="K21">
-        <v>0.9237237529898721</v>
+        <v>2.010206334500594</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4887033399035516</v>
+        <v>0.724001474171601</v>
       </c>
       <c r="N21">
-        <v>2.59945077448068</v>
+        <v>1.183533870381027</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7589140366112019</v>
+        <v>1.768481937113734</v>
       </c>
       <c r="C22">
-        <v>0.2196414307322812</v>
+        <v>0.4470463710497938</v>
       </c>
       <c r="D22">
-        <v>0.6420359668333901</v>
+        <v>0.6151775975448857</v>
       </c>
       <c r="E22">
-        <v>0.2349102564136487</v>
+        <v>0.2017666219246976</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.876230563344109</v>
+        <v>1.573158388894512</v>
       </c>
       <c r="H22">
-        <v>1.582309331362552</v>
+        <v>0.9319537989878484</v>
       </c>
       <c r="I22">
-        <v>1.299646612430038</v>
+        <v>0.8450022824672487</v>
       </c>
       <c r="J22">
-        <v>0.1031457836283352</v>
+        <v>0.07270189415977057</v>
       </c>
       <c r="K22">
-        <v>0.9621654994682274</v>
+        <v>2.165901710407979</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5005970713155961</v>
+        <v>0.776983454786631</v>
       </c>
       <c r="N22">
-        <v>2.586718553719791</v>
+        <v>1.15561434340151</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7418362834689844</v>
+        <v>1.700575317676879</v>
       </c>
       <c r="C23">
-        <v>0.2156359449673175</v>
+        <v>0.4298191396721052</v>
       </c>
       <c r="D23">
-        <v>0.6386011402688041</v>
+        <v>0.5963959166839743</v>
       </c>
       <c r="E23">
-        <v>0.2339425811996989</v>
+        <v>0.1959895374394947</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.871048766111983</v>
+        <v>1.536681081438275</v>
       </c>
       <c r="H23">
-        <v>1.581844041035936</v>
+        <v>0.9181989645933015</v>
       </c>
       <c r="I23">
-        <v>1.298941971641653</v>
+        <v>0.8321603337714265</v>
       </c>
       <c r="J23">
-        <v>0.1029161455166872</v>
+        <v>0.0709301888025422</v>
       </c>
       <c r="K23">
-        <v>0.9416172076028033</v>
+        <v>2.082579818929048</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4942306837960544</v>
+        <v>0.7486119028127973</v>
       </c>
       <c r="N23">
-        <v>2.593454739269177</v>
+        <v>1.170333885121053</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6776662520423429</v>
+        <v>1.446793282176031</v>
       </c>
       <c r="C24">
-        <v>0.2006456377394272</v>
+        <v>0.3658170943189134</v>
       </c>
       <c r="D24">
-        <v>0.6260870119472486</v>
+        <v>0.527032698749025</v>
       </c>
       <c r="E24">
-        <v>0.2304535463932851</v>
+        <v>0.1747116128279274</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.853002365836659</v>
+        <v>1.404952230988442</v>
       </c>
       <c r="H24">
-        <v>1.581144922756295</v>
+        <v>0.8694284919681934</v>
       </c>
       <c r="I24">
-        <v>1.297228994596729</v>
+        <v>0.7868521754769375</v>
       </c>
       <c r="J24">
-        <v>0.1021184979095082</v>
+        <v>0.06444875244526571</v>
       </c>
       <c r="K24">
-        <v>0.8644803017220681</v>
+        <v>1.771631939754542</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4705252777494309</v>
+        <v>0.6431090332527276</v>
       </c>
       <c r="N24">
-        <v>2.620267581494083</v>
+        <v>1.229949260319863</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6095439376040872</v>
+        <v>1.178960946538837</v>
       </c>
       <c r="C25">
-        <v>0.1848592739629566</v>
+        <v>0.2989547027399908</v>
       </c>
       <c r="D25">
-        <v>0.6136472973453806</v>
+        <v>0.4554529157776983</v>
       </c>
       <c r="E25">
-        <v>0.2270663333226537</v>
+        <v>0.1528668332302061</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.836901608227592</v>
+        <v>1.27474275614648</v>
       </c>
       <c r="H25">
-        <v>1.582662453233482</v>
+        <v>0.8230838211756293</v>
       </c>
       <c r="I25">
-        <v>1.297420675768414</v>
+        <v>0.7442320048555473</v>
       </c>
       <c r="J25">
-        <v>0.1014122076022126</v>
+        <v>0.05788134285258195</v>
       </c>
       <c r="K25">
-        <v>0.7827478699853998</v>
+        <v>1.444270882286503</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4458250998053828</v>
+        <v>0.5327805391017435</v>
       </c>
       <c r="N25">
-        <v>2.651962983843418</v>
+        <v>1.301789358712838</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9855759772457873</v>
+        <v>3.404585731072871</v>
       </c>
       <c r="C2">
-        <v>0.2511525720601071</v>
+        <v>1.318433451242242</v>
       </c>
       <c r="D2">
-        <v>0.4050369977159249</v>
+        <v>0.5870680226240381</v>
       </c>
       <c r="E2">
-        <v>0.1375700752269573</v>
+        <v>0.273219695086425</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.187414546533788</v>
+        <v>1.75752639371072</v>
       </c>
       <c r="H2">
-        <v>0.793585939864812</v>
+        <v>0.0003541201710466346</v>
       </c>
       <c r="I2">
-        <v>0.7174487662770588</v>
+        <v>0.0005294380722782321</v>
       </c>
       <c r="J2">
-        <v>0.05335128562758484</v>
+        <v>1.045335523206489</v>
       </c>
       <c r="K2">
-        <v>1.208464451334237</v>
+        <v>0.7905998203670563</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1698962912254984</v>
       </c>
       <c r="M2">
-        <v>0.4538932226611152</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.360526615572596</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8563354942676256</v>
+        <v>2.962448840491845</v>
       </c>
       <c r="C3">
-        <v>0.2194523532049573</v>
+        <v>1.144794772147634</v>
       </c>
       <c r="D3">
-        <v>0.3720748019722322</v>
+        <v>0.5239790362268195</v>
       </c>
       <c r="E3">
-        <v>0.1276212535030474</v>
+        <v>0.2405596685644156</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.132816643956218</v>
+        <v>1.593593874892605</v>
       </c>
       <c r="H3">
-        <v>0.776142420085236</v>
+        <v>0.001772485870117357</v>
       </c>
       <c r="I3">
-        <v>0.701818662621271</v>
+        <v>0.001348153955647469</v>
       </c>
       <c r="J3">
-        <v>0.05044553339027402</v>
+        <v>0.9725509643818668</v>
       </c>
       <c r="K3">
-        <v>1.051165271322873</v>
+        <v>0.7455490706518972</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1469601056533918</v>
       </c>
       <c r="M3">
-        <v>0.4016098188151673</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.403694109920522</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7777096893861142</v>
+        <v>2.691431017335447</v>
       </c>
       <c r="C4">
-        <v>0.2002732870586357</v>
+        <v>1.03927120456558</v>
       </c>
       <c r="D4">
-        <v>0.3523637448262917</v>
+        <v>0.4854858552837698</v>
       </c>
       <c r="E4">
-        <v>0.1216968199148987</v>
+        <v>0.2206058141692822</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.101331512598549</v>
+        <v>1.49372686855142</v>
       </c>
       <c r="H4">
-        <v>0.7665872423578861</v>
+        <v>0.003230010566154462</v>
       </c>
       <c r="I4">
-        <v>0.6933610363948759</v>
+        <v>0.002354160781086634</v>
       </c>
       <c r="J4">
-        <v>0.04873457009452409</v>
+        <v>0.9283256575575649</v>
       </c>
       <c r="K4">
-        <v>0.9555958645972567</v>
+        <v>0.7180951043855046</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1330437565001574</v>
       </c>
       <c r="M4">
-        <v>0.3700040847633019</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.431771585003645</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7458293025738953</v>
+        <v>2.581040366320849</v>
       </c>
       <c r="C5">
-        <v>0.1925213948692743</v>
+        <v>0.997758807392529</v>
       </c>
       <c r="D5">
-        <v>0.3444549487418698</v>
+        <v>0.4698365684173496</v>
       </c>
       <c r="E5">
-        <v>0.1193258694838057</v>
+        <v>0.2124828031035051</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.088982771466547</v>
+        <v>1.450271312806223</v>
       </c>
       <c r="H5">
-        <v>0.7629699383249431</v>
+        <v>0.003966179854649754</v>
       </c>
       <c r="I5">
-        <v>0.6901865647194754</v>
+        <v>0.002957960490133527</v>
       </c>
       <c r="J5">
-        <v>0.04805466086221699</v>
+        <v>0.9089178182465787</v>
       </c>
       <c r="K5">
-        <v>0.9168747073865973</v>
+        <v>0.7052420842282388</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1273985569971288</v>
       </c>
       <c r="M5">
-        <v>0.357237718227239</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.443596837278058</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7405446256959465</v>
+        <v>2.562687062962198</v>
       </c>
       <c r="C6">
-        <v>0.1912378260803393</v>
+        <v>0.9924078590759677</v>
       </c>
       <c r="D6">
-        <v>0.3431489093487983</v>
+        <v>0.467224044000119</v>
       </c>
       <c r="E6">
-        <v>0.1189347058811734</v>
+        <v>0.2111223772640187</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.08696050051185</v>
+        <v>1.439498895788631</v>
       </c>
       <c r="H6">
-        <v>0.7623855956148589</v>
+        <v>0.004100958531077281</v>
       </c>
       <c r="I6">
-        <v>0.6896754740747681</v>
+        <v>0.003165280442757101</v>
       </c>
       <c r="J6">
-        <v>0.04794277835192773</v>
+        <v>0.903887047566883</v>
       </c>
       <c r="K6">
-        <v>0.910457769331714</v>
+        <v>0.7010295262807134</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1264519904161006</v>
       </c>
       <c r="M6">
-        <v>0.3551243851501624</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.445583235656237</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7772791196662752</v>
+        <v>2.689863819259642</v>
       </c>
       <c r="C7">
-        <v>0.2001684943943047</v>
+        <v>1.04289330473182</v>
       </c>
       <c r="D7">
-        <v>0.3522565951552536</v>
+        <v>0.4852288507286175</v>
       </c>
       <c r="E7">
-        <v>0.1216646729566691</v>
+        <v>0.2204616817750988</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.101163062119738</v>
+        <v>1.483381190938417</v>
       </c>
       <c r="H7">
-        <v>0.7665373564095006</v>
+        <v>0.003249814884163316</v>
       </c>
       <c r="I7">
-        <v>0.6933171411337327</v>
+        <v>0.002616730398250056</v>
       </c>
       <c r="J7">
-        <v>0.04872533184269301</v>
+        <v>0.9231033104549056</v>
       </c>
       <c r="K7">
-        <v>0.9550727889693746</v>
+        <v>0.7122293835782472</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1329365250061088</v>
       </c>
       <c r="M7">
-        <v>0.3698314694712366</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.43192952714886</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9408484320017863</v>
+        <v>3.251882574419483</v>
       </c>
       <c r="C8">
-        <v>0.2401582427532674</v>
+        <v>1.263894536026385</v>
       </c>
       <c r="D8">
-        <v>0.3935564049874358</v>
+        <v>0.5651967847057051</v>
       </c>
       <c r="E8">
-        <v>0.1340996222812834</v>
+        <v>0.2618870164628433</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.168147005487555</v>
+        <v>1.687823714373138</v>
       </c>
       <c r="H8">
-        <v>0.7873229583398</v>
+        <v>0.0007222143431673267</v>
       </c>
       <c r="I8">
-        <v>0.7118140862967621</v>
+        <v>0.0009946609811484208</v>
       </c>
       <c r="J8">
-        <v>0.05233352217897291</v>
+        <v>1.013545226894394</v>
       </c>
       <c r="K8">
-        <v>1.153998431445444</v>
+        <v>0.767455893629581</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1619049631998024</v>
       </c>
       <c r="M8">
-        <v>0.4357556269274738</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.375076979435754</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.268507686418474</v>
+        <v>4.35992081411473</v>
       </c>
       <c r="C9">
-        <v>0.3212277913807782</v>
+        <v>1.699961745872145</v>
       </c>
       <c r="D9">
-        <v>0.4791778479942366</v>
+        <v>0.7245464953647343</v>
       </c>
       <c r="E9">
-        <v>0.1600925871908174</v>
+        <v>0.3442869458645674</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.317171245016638</v>
+        <v>2.114557044412578</v>
       </c>
       <c r="H9">
-        <v>0.8379286877761842</v>
+        <v>0.0008449992618042579</v>
       </c>
       <c r="I9">
-        <v>0.7578253313160559</v>
+        <v>0.001865517016671703</v>
       </c>
       <c r="J9">
-        <v>0.06004240971336117</v>
+        <v>1.204420297730053</v>
       </c>
       <c r="K9">
-        <v>1.553624294429</v>
+        <v>0.8883042346505121</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2204319098872176</v>
       </c>
       <c r="M9">
-        <v>0.5695399443250935</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.276642227130779</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.515146495040511</v>
+        <v>5.179390715247507</v>
       </c>
       <c r="C10">
-        <v>0.3829952483058321</v>
+        <v>2.019963207907665</v>
       </c>
       <c r="D10">
-        <v>0.5455793906978954</v>
+        <v>0.8268249976463267</v>
       </c>
       <c r="E10">
-        <v>0.1803915175773767</v>
+        <v>0.3921670194642957</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.439686733760823</v>
+        <v>2.379067405098198</v>
       </c>
       <c r="H10">
-        <v>0.8821346020825729</v>
+        <v>0.004588050601924021</v>
       </c>
       <c r="I10">
-        <v>0.7986184074076519</v>
+        <v>0.005798703658014048</v>
       </c>
       <c r="J10">
-        <v>0.06617162133663612</v>
+        <v>1.320374971699948</v>
       </c>
       <c r="K10">
-        <v>1.855311752190943</v>
+        <v>0.9525542090786416</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2517501623997873</v>
       </c>
       <c r="M10">
-        <v>0.6714392962733697</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.213142700558222</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.62904685993729</v>
+        <v>5.542626782944524</v>
       </c>
       <c r="C11">
-        <v>0.4117189316238807</v>
+        <v>2.076826189595579</v>
       </c>
       <c r="D11">
-        <v>0.5767099263821649</v>
+        <v>0.7302535496864948</v>
       </c>
       <c r="E11">
-        <v>0.189941095703837</v>
+        <v>0.3029866262973542</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.498802419683329</v>
+        <v>2.050606131948257</v>
       </c>
       <c r="H11">
-        <v>0.9040211804808393</v>
+        <v>0.02330681173228655</v>
       </c>
       <c r="I11">
-        <v>0.8189505914683792</v>
+        <v>0.007443061328950229</v>
       </c>
       <c r="J11">
-        <v>0.06908046273112944</v>
+        <v>1.148867982659823</v>
       </c>
       <c r="K11">
-        <v>1.994867479273381</v>
+        <v>0.7763328226979453</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1659825737913252</v>
       </c>
       <c r="M11">
-        <v>0.7187896070007582</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.186382243527703</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.672460462328104</v>
+        <v>5.675862189389193</v>
       </c>
       <c r="C12">
-        <v>0.4226990590879609</v>
+        <v>2.048616129892025</v>
       </c>
       <c r="D12">
-        <v>0.5886460314623037</v>
+        <v>0.6330993239571967</v>
       </c>
       <c r="E12">
-        <v>0.1936075658278398</v>
+        <v>0.2291984338462569</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.521724950879246</v>
+        <v>1.753244367027833</v>
       </c>
       <c r="H12">
-        <v>0.9125875915640336</v>
+        <v>0.06145023626701374</v>
       </c>
       <c r="I12">
-        <v>0.8269286821680595</v>
+        <v>0.00743422559449769</v>
       </c>
       <c r="J12">
-        <v>0.0702010867506786</v>
+        <v>0.9970722045538025</v>
       </c>
       <c r="K12">
-        <v>2.048097156359461</v>
+        <v>0.637473625555252</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1063068622889958</v>
       </c>
       <c r="M12">
-        <v>0.7368822375455935</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.176574172417872</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.663097397500394</v>
+        <v>5.638312368463403</v>
       </c>
       <c r="C13">
-        <v>0.4203294840205842</v>
+        <v>1.960380934400291</v>
       </c>
       <c r="D13">
-        <v>0.5860685618872878</v>
+        <v>0.5306702798030472</v>
       </c>
       <c r="E13">
-        <v>0.1928156084071446</v>
+        <v>0.1635352690735878</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.516763453973653</v>
+        <v>1.44868733288223</v>
       </c>
       <c r="H13">
-        <v>0.9107298908918438</v>
+        <v>0.1161561088639331</v>
       </c>
       <c r="I13">
-        <v>0.8251976644309025</v>
+        <v>0.006450844920680154</v>
       </c>
       <c r="J13">
-        <v>0.06995886065878665</v>
+        <v>0.8444642428045768</v>
       </c>
       <c r="K13">
-        <v>2.036615318840035</v>
+        <v>0.5106931200170166</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06355235831424366</v>
       </c>
       <c r="M13">
-        <v>0.7329781371912745</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.17867170198484</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.632612646941567</v>
+        <v>5.534961743848555</v>
       </c>
       <c r="C14">
-        <v>0.4126201273165861</v>
+        <v>1.873421495535013</v>
       </c>
       <c r="D14">
-        <v>0.5776888686363293</v>
+        <v>0.4582158676534505</v>
       </c>
       <c r="E14">
-        <v>0.1902417017333278</v>
+        <v>0.1232967935007814</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.50067720950949</v>
+        <v>1.235045428331631</v>
       </c>
       <c r="H14">
-        <v>0.9047202253117632</v>
+        <v>0.1646641204179673</v>
       </c>
       <c r="I14">
-        <v>0.81960122558921</v>
+        <v>0.005498112843325131</v>
       </c>
       <c r="J14">
-        <v>0.06917226350625327</v>
+        <v>0.7385148312660021</v>
       </c>
       <c r="K14">
-        <v>1.999238740287325</v>
+        <v>0.428954939292197</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.04415391672590374</v>
       </c>
       <c r="M14">
-        <v>0.7202747355819099</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.185568683175646</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.613977740182037</v>
+        <v>5.473404373822177</v>
       </c>
       <c r="C15">
-        <v>0.4079117614240886</v>
+        <v>1.841505099448511</v>
       </c>
       <c r="D15">
-        <v>0.5725757529447719</v>
+        <v>0.4388834156836481</v>
       </c>
       <c r="E15">
-        <v>0.1886718063339217</v>
+        <v>0.1138511251587495</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.490895384801718</v>
+        <v>1.176732712900503</v>
       </c>
       <c r="H15">
-        <v>0.9010761078425844</v>
+        <v>0.1768533903932337</v>
       </c>
       <c r="I15">
-        <v>0.8162102770394526</v>
+        <v>0.005198634439967265</v>
       </c>
       <c r="J15">
-        <v>0.0686929936131051</v>
+        <v>0.710177346641899</v>
       </c>
       <c r="K15">
-        <v>1.976395934528256</v>
+        <v>0.408612178154371</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.04059168878601227</v>
       </c>
       <c r="M15">
-        <v>0.7125152350814119</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.189836297826261</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.507740206536766</v>
+        <v>5.127300869859084</v>
       </c>
       <c r="C16">
-        <v>0.3811317693671583</v>
+        <v>1.726497470321306</v>
       </c>
       <c r="D16">
-        <v>0.5435647649984503</v>
+        <v>0.4192497253762895</v>
       </c>
       <c r="E16">
-        <v>0.1797741864483697</v>
+        <v>0.1092948526248563</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.435895649184175</v>
+        <v>1.127949976017206</v>
       </c>
       <c r="H16">
-        <v>0.880741932569947</v>
+        <v>0.1629006268083657</v>
       </c>
       <c r="I16">
-        <v>0.7973273311765894</v>
+        <v>0.003762397525236771</v>
       </c>
       <c r="J16">
-        <v>0.06598409618545276</v>
+        <v>0.6923020666829984</v>
       </c>
       <c r="K16">
-        <v>1.846242230959888</v>
+        <v>0.4067690991418189</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.03792797442307005</v>
       </c>
       <c r="M16">
-        <v>0.6683664574326897</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.214935991080722</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.443028511579655</v>
+        <v>4.917374285935523</v>
       </c>
       <c r="C17">
-        <v>0.3648722663249657</v>
+        <v>1.684486696451245</v>
       </c>
       <c r="D17">
-        <v>0.5260142542938411</v>
+        <v>0.4414933828139453</v>
       </c>
       <c r="E17">
-        <v>0.1743999313436433</v>
+        <v>0.1256498415747522</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.403055867228375</v>
+        <v>1.200255034203195</v>
       </c>
       <c r="H17">
-        <v>0.8687383788590637</v>
+        <v>0.1246485462423266</v>
       </c>
       <c r="I17">
-        <v>0.7862139731324262</v>
+        <v>0.003213912453309042</v>
       </c>
       <c r="J17">
-        <v>0.06435437689381018</v>
+        <v>0.7331484825902521</v>
       </c>
       <c r="K17">
-        <v>1.767024549279569</v>
+        <v>0.4467133153979574</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.04410111740596179</v>
       </c>
       <c r="M17">
-        <v>0.6415505826446548</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.230891864128509</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.405965955630933</v>
+        <v>4.799796269623073</v>
       </c>
       <c r="C18">
-        <v>0.3555782336511015</v>
+        <v>1.696223009236576</v>
       </c>
       <c r="D18">
-        <v>0.5160056919098679</v>
+        <v>0.5056259496991515</v>
       </c>
       <c r="E18">
-        <v>0.1713381806078829</v>
+        <v>0.167735631418136</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.384482430761665</v>
+        <v>1.402089136274583</v>
       </c>
       <c r="H18">
-        <v>0.8620000320062786</v>
+        <v>0.07179762949174062</v>
       </c>
       <c r="I18">
-        <v>0.7799874313481894</v>
+        <v>0.002906999683732536</v>
       </c>
       <c r="J18">
-        <v>0.06342824546636905</v>
+        <v>0.8375631817923477</v>
       </c>
       <c r="K18">
-        <v>1.721675444827071</v>
+        <v>0.537822873175287</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.06801830452682367</v>
       </c>
       <c r="M18">
-        <v>0.6262193010705914</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.240268058946995</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.393443252848385</v>
+        <v>4.764634051797827</v>
       </c>
       <c r="C19">
-        <v>0.3524410146936532</v>
+        <v>1.758441622527641</v>
       </c>
       <c r="D19">
-        <v>0.5126313112077128</v>
+        <v>0.6045321726222426</v>
       </c>
       <c r="E19">
-        <v>0.1703064283623448</v>
+        <v>0.2367027561196196</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.378246450559004</v>
+        <v>1.698027727184069</v>
       </c>
       <c r="H19">
-        <v>0.8597463520065958</v>
+        <v>0.02699340143513496</v>
       </c>
       <c r="I19">
-        <v>0.7779069865382127</v>
+        <v>0.003319243095001312</v>
       </c>
       <c r="J19">
-        <v>0.06311655261379912</v>
+        <v>0.9872749689198486</v>
       </c>
       <c r="K19">
-        <v>1.706356464989284</v>
+        <v>0.6680348747511147</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1189289866967087</v>
       </c>
       <c r="M19">
-        <v>0.6210437307830645</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.243476245830337</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.449900581667634</v>
+        <v>4.963105673315567</v>
       </c>
       <c r="C20">
-        <v>0.3665970235846316</v>
+        <v>1.948237567314777</v>
       </c>
       <c r="D20">
-        <v>0.5278735298649906</v>
+        <v>0.7989642824423981</v>
       </c>
       <c r="E20">
-        <v>0.1749689553848626</v>
+        <v>0.3788333719463139</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.406518752755318</v>
+        <v>2.27613361492098</v>
       </c>
       <c r="H20">
-        <v>0.8699988607735918</v>
+        <v>0.003288568904896039</v>
       </c>
       <c r="I20">
-        <v>0.7873797101196729</v>
+        <v>0.005191902462003739</v>
       </c>
       <c r="J20">
-        <v>0.06452668773403047</v>
+        <v>1.273028291130458</v>
       </c>
       <c r="K20">
-        <v>1.775434827871891</v>
+        <v>0.9167886544433017</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2427523474500077</v>
       </c>
       <c r="M20">
-        <v>0.644395473285492</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.229172621309672</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.641558791360922</v>
+        <v>5.597040196011051</v>
       </c>
       <c r="C21">
-        <v>0.414881643208588</v>
+        <v>2.211654651309289</v>
       </c>
       <c r="D21">
-        <v>0.5801460564103706</v>
+        <v>0.9047527136513906</v>
       </c>
       <c r="E21">
-        <v>0.1909963155727183</v>
+        <v>0.4373820722975026</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.505387140063675</v>
+        <v>2.569361568368549</v>
       </c>
       <c r="H21">
-        <v>0.9064776601048266</v>
+        <v>0.007676288818662225</v>
       </c>
       <c r="I21">
-        <v>0.8212372730386548</v>
+        <v>0.009488769473992242</v>
       </c>
       <c r="J21">
-        <v>0.06940277270436468</v>
+        <v>1.407153191131101</v>
       </c>
       <c r="K21">
-        <v>2.010206334500594</v>
+        <v>1.00810026763439</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2878013904991121</v>
       </c>
       <c r="M21">
-        <v>0.724001474171601</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.183533870381027</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.768481937113734</v>
+        <v>6.01336542164313</v>
       </c>
       <c r="C22">
-        <v>0.4470463710497938</v>
+        <v>2.374977856112594</v>
       </c>
       <c r="D22">
-        <v>0.6151775975448857</v>
+        <v>0.9659933763738593</v>
       </c>
       <c r="E22">
-        <v>0.2017666219246976</v>
+        <v>0.4690750403508446</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.573158388894512</v>
+        <v>2.750131635812494</v>
       </c>
       <c r="H22">
-        <v>0.9319537989878484</v>
+        <v>0.01142756284897839</v>
       </c>
       <c r="I22">
-        <v>0.8450022824672487</v>
+        <v>0.01281020022853596</v>
       </c>
       <c r="J22">
-        <v>0.07270189415977057</v>
+        <v>1.489438224323067</v>
       </c>
       <c r="K22">
-        <v>2.165901710407979</v>
+        <v>1.063874926711364</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3110590918915221</v>
       </c>
       <c r="M22">
-        <v>0.776983454786631</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.15561434340151</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.700575317676879</v>
+        <v>5.791139717013948</v>
       </c>
       <c r="C23">
-        <v>0.4298191396721052</v>
+        <v>2.28247221406707</v>
       </c>
       <c r="D23">
-        <v>0.5963959166839743</v>
+        <v>0.9332989803378382</v>
       </c>
       <c r="E23">
-        <v>0.1959895374394947</v>
+        <v>0.4521702264627194</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.536681081438275</v>
+        <v>2.665158729527917</v>
       </c>
       <c r="H23">
-        <v>0.9181989645933015</v>
+        <v>0.009354970871394197</v>
       </c>
       <c r="I23">
-        <v>0.8321603337714265</v>
+        <v>0.01071187418339203</v>
       </c>
       <c r="J23">
-        <v>0.0709301888025422</v>
+        <v>1.451320725718517</v>
       </c>
       <c r="K23">
-        <v>2.082579818929048</v>
+        <v>1.040804174560719</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2986513374989954</v>
       </c>
       <c r="M23">
-        <v>0.7486119028127973</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.170333885121053</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.446793282176031</v>
+        <v>4.954040151706295</v>
       </c>
       <c r="C24">
-        <v>0.3658170943189134</v>
+        <v>1.944937856561523</v>
       </c>
       <c r="D24">
-        <v>0.527032698749025</v>
+        <v>0.8107817894239986</v>
       </c>
       <c r="E24">
-        <v>0.1747116128279274</v>
+        <v>0.3888295367367434</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.404952230988442</v>
+        <v>2.3302581537923</v>
       </c>
       <c r="H24">
-        <v>0.8694284919681934</v>
+        <v>0.00331201676017101</v>
       </c>
       <c r="I24">
-        <v>0.7868521754769375</v>
+        <v>0.004801327912368869</v>
       </c>
       <c r="J24">
-        <v>0.06444875244526571</v>
+        <v>1.300350802510394</v>
       </c>
       <c r="K24">
-        <v>1.771631939754542</v>
+        <v>0.9445739367076058</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2525032930454358</v>
       </c>
       <c r="M24">
-        <v>0.6431090332527276</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.229949260319863</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.178960946538837</v>
+        <v>4.058993820397063</v>
       </c>
       <c r="C25">
-        <v>0.2989547027399908</v>
+        <v>1.588367608272904</v>
       </c>
       <c r="D25">
-        <v>0.4554529157776983</v>
+        <v>0.6810135431842923</v>
       </c>
       <c r="E25">
-        <v>0.1528668332302061</v>
+        <v>0.3217645075225732</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.27474275614648</v>
+        <v>1.980089610855941</v>
       </c>
       <c r="H25">
-        <v>0.8230838211756293</v>
+        <v>0.00019917273000436</v>
       </c>
       <c r="I25">
-        <v>0.7442320048555473</v>
+        <v>0.001485487332403501</v>
       </c>
       <c r="J25">
-        <v>0.05788134285258195</v>
+        <v>1.143128628753715</v>
       </c>
       <c r="K25">
-        <v>1.444270882286503</v>
+        <v>0.8449211386052013</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2043049179146124</v>
       </c>
       <c r="M25">
-        <v>0.5327805391017435</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.301789358712838</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.404585731072871</v>
+        <v>3.410289959063846</v>
       </c>
       <c r="C2">
-        <v>1.318433451242242</v>
+        <v>1.482816191885888</v>
       </c>
       <c r="D2">
-        <v>0.5870680226240381</v>
+        <v>0.5881704138872124</v>
       </c>
       <c r="E2">
-        <v>0.273219695086425</v>
+        <v>0.2740718753814946</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.75752639371072</v>
+        <v>1.370469610942649</v>
       </c>
       <c r="H2">
-        <v>0.0003541201710466346</v>
+        <v>0.0002802673673052425</v>
       </c>
       <c r="I2">
-        <v>0.0005294380722782321</v>
+        <v>0.0005410377560925994</v>
       </c>
       <c r="J2">
-        <v>1.045335523206489</v>
+        <v>0.897744785598519</v>
       </c>
       <c r="K2">
-        <v>0.7905998203670563</v>
+        <v>0.5760529796164136</v>
       </c>
       <c r="L2">
-        <v>0.1698962912254984</v>
+        <v>0.2689921553165533</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1713804009210946</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1707077714188827</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,49 +480,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.962448840491845</v>
+        <v>2.969122021103999</v>
       </c>
       <c r="C3">
-        <v>1.144794772147634</v>
+        <v>1.282750944521013</v>
       </c>
       <c r="D3">
-        <v>0.5239790362268195</v>
+        <v>0.5260163403776232</v>
       </c>
       <c r="E3">
-        <v>0.2405596685644156</v>
+        <v>0.2421159291845356</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.593593874892605</v>
+        <v>1.261827594971635</v>
       </c>
       <c r="H3">
-        <v>0.001772485870117357</v>
+        <v>0.001453632418736861</v>
       </c>
       <c r="I3">
-        <v>0.001348153955647469</v>
+        <v>0.0009148352111703062</v>
       </c>
       <c r="J3">
-        <v>0.9725509643818668</v>
+        <v>0.8446003849110468</v>
       </c>
       <c r="K3">
-        <v>0.7455490706518972</v>
+        <v>0.5581733434318608</v>
       </c>
       <c r="L3">
-        <v>0.1469601056533918</v>
+        <v>0.2687872970840459</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1588019753365266</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1483963219408793</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,49 +539,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.691431017335447</v>
+        <v>2.698291141765992</v>
       </c>
       <c r="C4">
-        <v>1.03927120456558</v>
+        <v>1.161153879326207</v>
       </c>
       <c r="D4">
-        <v>0.4854858552837698</v>
+        <v>0.4880723298020939</v>
       </c>
       <c r="E4">
-        <v>0.2206058141692822</v>
+        <v>0.2225646406289101</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.49372686855142</v>
+        <v>1.195700198823076</v>
       </c>
       <c r="H4">
-        <v>0.003230010566154462</v>
+        <v>0.002670555249587148</v>
       </c>
       <c r="I4">
-        <v>0.002354160781086634</v>
+        <v>0.001522091686312343</v>
       </c>
       <c r="J4">
-        <v>0.9283256575575649</v>
+        <v>0.8118042936439593</v>
       </c>
       <c r="K4">
-        <v>0.7180951043855046</v>
+        <v>0.5471985153646415</v>
       </c>
       <c r="L4">
-        <v>0.1330437565001574</v>
+        <v>0.2684142880776292</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1518792650147738</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1348115824469289</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -580,49 +598,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.581040366320849</v>
+        <v>2.587884635985688</v>
       </c>
       <c r="C5">
-        <v>0.997758807392529</v>
+        <v>1.113039295141164</v>
       </c>
       <c r="D5">
-        <v>0.4698365684173496</v>
+        <v>0.4726442054827089</v>
       </c>
       <c r="E5">
-        <v>0.2124828031035051</v>
+        <v>0.2146008913950865</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.450271312806223</v>
+        <v>1.166611831868266</v>
       </c>
       <c r="H5">
-        <v>0.003966179854649754</v>
+        <v>0.003286861171236222</v>
       </c>
       <c r="I5">
-        <v>0.002957960490133527</v>
+        <v>0.001944928956532976</v>
       </c>
       <c r="J5">
-        <v>0.9089178182465787</v>
+        <v>0.7972068579488507</v>
       </c>
       <c r="K5">
-        <v>0.7052420842282388</v>
+        <v>0.541489394450771</v>
       </c>
       <c r="L5">
-        <v>0.1273985569971288</v>
+        <v>0.2676619525713591</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1488676393462214</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1292911616785233</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -633,49 +657,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.562687062962198</v>
+        <v>2.569522569609546</v>
       </c>
       <c r="C6">
-        <v>0.9924078590759677</v>
+        <v>1.106481967971945</v>
       </c>
       <c r="D6">
-        <v>0.467224044000119</v>
+        <v>0.4700707768099619</v>
       </c>
       <c r="E6">
-        <v>0.2111223772640187</v>
+        <v>0.2132684286689326</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.439498895788631</v>
+        <v>1.159034061566175</v>
       </c>
       <c r="H6">
-        <v>0.004100958531077281</v>
+        <v>0.00339946642927047</v>
       </c>
       <c r="I6">
-        <v>0.003165280442757101</v>
+        <v>0.002135125051229814</v>
       </c>
       <c r="J6">
-        <v>0.903887047566883</v>
+        <v>0.7933338503415825</v>
       </c>
       <c r="K6">
-        <v>0.7010295262807134</v>
+        <v>0.5390405856723248</v>
       </c>
       <c r="L6">
-        <v>0.1264519904161006</v>
+        <v>0.2668783325779174</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1479081255793915</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1283661775315679</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -686,49 +716,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.689863819259642</v>
+        <v>2.696680944795105</v>
       </c>
       <c r="C7">
-        <v>1.04289330473182</v>
+        <v>1.162604833839623</v>
       </c>
       <c r="D7">
-        <v>0.4852288507286175</v>
+        <v>0.4877939833700964</v>
       </c>
       <c r="E7">
-        <v>0.2204616817750988</v>
+        <v>0.2224039029475833</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.483381190938417</v>
+        <v>1.190757382687508</v>
       </c>
       <c r="H7">
-        <v>0.003249814884163316</v>
+        <v>0.00269282998965803</v>
       </c>
       <c r="I7">
-        <v>0.002616730398250056</v>
+        <v>0.001825132131140883</v>
       </c>
       <c r="J7">
-        <v>0.9231033104549056</v>
+        <v>0.7973560996742179</v>
       </c>
       <c r="K7">
-        <v>0.7122293835782472</v>
+        <v>0.541121764595168</v>
       </c>
       <c r="L7">
-        <v>0.1329365250061088</v>
+        <v>0.2658251306538517</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1499127414155268</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1346886899864117</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -739,49 +775,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.251882574419483</v>
+        <v>3.257851143336495</v>
       </c>
       <c r="C8">
-        <v>1.263894536026385</v>
+        <v>1.41274156709585</v>
       </c>
       <c r="D8">
-        <v>0.5651967847057051</v>
+        <v>0.5665354373354887</v>
       </c>
       <c r="E8">
-        <v>0.2618870164628433</v>
+        <v>0.2629175752209392</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.687823714373138</v>
+        <v>1.332946335229281</v>
       </c>
       <c r="H8">
-        <v>0.0007222143431673267</v>
+        <v>0.0005915094791606457</v>
       </c>
       <c r="I8">
-        <v>0.0009946609811484208</v>
+        <v>0.0009353980107178472</v>
       </c>
       <c r="J8">
-        <v>1.013545226894394</v>
+        <v>0.8402905452862228</v>
       </c>
       <c r="K8">
-        <v>0.767455893629581</v>
+        <v>0.558276797391926</v>
       </c>
       <c r="L8">
-        <v>0.1619049631998024</v>
+        <v>0.2642444222181695</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1628823904193659</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1628759896017229</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -792,49 +834,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.35992081411473</v>
+        <v>4.360552106391083</v>
       </c>
       <c r="C9">
-        <v>1.699961745872145</v>
+        <v>1.914046017727742</v>
       </c>
       <c r="D9">
-        <v>0.7245464953647343</v>
+        <v>0.7233058801893151</v>
       </c>
       <c r="E9">
-        <v>0.3442869458645674</v>
+        <v>0.3433097982248441</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.114557044412578</v>
+        <v>1.620606238728101</v>
       </c>
       <c r="H9">
-        <v>0.0008449992618042579</v>
+        <v>0.0007234389687349463</v>
       </c>
       <c r="I9">
-        <v>0.001865517016671703</v>
+        <v>0.002038709030995456</v>
       </c>
       <c r="J9">
-        <v>1.204420297730053</v>
+        <v>0.9673924692846185</v>
       </c>
       <c r="K9">
-        <v>0.8883042346505121</v>
+        <v>0.6064546813215159</v>
       </c>
       <c r="L9">
-        <v>0.2204319098872176</v>
+        <v>0.2650957537517087</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1997099859141755</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2194516766940353</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -845,49 +893,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.179390715247507</v>
+        <v>5.172761062323843</v>
       </c>
       <c r="C10">
-        <v>2.019963207907665</v>
+        <v>2.266734128448718</v>
       </c>
       <c r="D10">
-        <v>0.8268249976463267</v>
+        <v>0.8233548895360343</v>
       </c>
       <c r="E10">
-        <v>0.3921670194642957</v>
+        <v>0.3894089049666363</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.379067405098198</v>
+        <v>1.815360262634556</v>
       </c>
       <c r="H10">
-        <v>0.004588050601924021</v>
+        <v>0.003854751608040274</v>
       </c>
       <c r="I10">
-        <v>0.005798703658014048</v>
+        <v>0.005293038305882902</v>
       </c>
       <c r="J10">
-        <v>1.320374971699948</v>
+        <v>0.9824849625351249</v>
       </c>
       <c r="K10">
-        <v>0.9525542090786416</v>
+        <v>0.6156023459242874</v>
       </c>
       <c r="L10">
-        <v>0.2517501623997873</v>
+        <v>0.2549543097847007</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2205239903731595</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2488918496976567</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,49 +952,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.542626782944524</v>
+        <v>5.533554511044883</v>
       </c>
       <c r="C11">
-        <v>2.076826189595579</v>
+        <v>2.278875637594126</v>
       </c>
       <c r="D11">
-        <v>0.7302535496864948</v>
+        <v>0.7265021374198</v>
       </c>
       <c r="E11">
-        <v>0.3029866262973542</v>
+        <v>0.300033429120468</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.050606131948257</v>
+        <v>1.609753873238645</v>
       </c>
       <c r="H11">
-        <v>0.02330681173228655</v>
+        <v>0.02244485140835906</v>
       </c>
       <c r="I11">
-        <v>0.007443061328950229</v>
+        <v>0.006750954297561229</v>
       </c>
       <c r="J11">
-        <v>1.148867982659823</v>
+        <v>0.7518624742853319</v>
       </c>
       <c r="K11">
-        <v>0.7763328226979453</v>
+        <v>0.4814545768659286</v>
       </c>
       <c r="L11">
-        <v>0.1659825737913252</v>
+        <v>0.2021257640427478</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1743231833679246</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1628939314506681</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -951,49 +1011,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.675862189389193</v>
+        <v>5.66669416518107</v>
       </c>
       <c r="C12">
-        <v>2.048616129892025</v>
+        <v>2.213587769792355</v>
       </c>
       <c r="D12">
-        <v>0.6330993239571967</v>
+        <v>0.6296456633797618</v>
       </c>
       <c r="E12">
-        <v>0.2291984338462569</v>
+        <v>0.2264994267921878</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.753244367027833</v>
+        <v>1.406282187963399</v>
       </c>
       <c r="H12">
-        <v>0.06145023626701374</v>
+        <v>0.06064691040548098</v>
       </c>
       <c r="I12">
-        <v>0.00743422559449769</v>
+        <v>0.006738556133794482</v>
       </c>
       <c r="J12">
-        <v>0.9970722045538025</v>
+        <v>0.6119636911127344</v>
       </c>
       <c r="K12">
-        <v>0.637473625555252</v>
+        <v>0.3902299959986095</v>
       </c>
       <c r="L12">
-        <v>0.1063068622889958</v>
+        <v>0.1689906305553208</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.139446143971913</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1034661505537997</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1004,49 +1070,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.638312368463403</v>
+        <v>5.631064949861809</v>
       </c>
       <c r="C13">
-        <v>1.960380934400291</v>
+        <v>2.09622321961433</v>
       </c>
       <c r="D13">
-        <v>0.5306702798030472</v>
+        <v>0.5279288747241822</v>
       </c>
       <c r="E13">
-        <v>0.1635352690735878</v>
+        <v>0.1614065579224615</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.44868733288223</v>
+        <v>1.1769635618069</v>
       </c>
       <c r="H13">
-        <v>0.1161561088639331</v>
+        <v>0.1155560060930441</v>
       </c>
       <c r="I13">
-        <v>0.006450844920680154</v>
+        <v>0.00599142310226064</v>
       </c>
       <c r="J13">
-        <v>0.8444642428045768</v>
+        <v>0.5312138883344204</v>
       </c>
       <c r="K13">
-        <v>0.5106931200170166</v>
+        <v>0.3205817636346637</v>
       </c>
       <c r="L13">
-        <v>0.06355235831424366</v>
+        <v>0.145625347800479</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1099549181158714</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06130427165814822</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1057,49 +1129,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.534961743848555</v>
+        <v>5.529805789477052</v>
       </c>
       <c r="C14">
-        <v>1.873421495535013</v>
+        <v>1.992042371724608</v>
       </c>
       <c r="D14">
-        <v>0.4582158676534505</v>
+        <v>0.4560918442599302</v>
       </c>
       <c r="E14">
-        <v>0.1232967935007814</v>
+        <v>0.1216539796740008</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.235045428331631</v>
+        <v>1.008475171120892</v>
       </c>
       <c r="H14">
-        <v>0.1646641204179673</v>
+        <v>0.1642390248212848</v>
       </c>
       <c r="I14">
-        <v>0.005498112843325131</v>
+        <v>0.005289685554386026</v>
       </c>
       <c r="J14">
-        <v>0.7385148312660021</v>
+        <v>0.4948761912408628</v>
       </c>
       <c r="K14">
-        <v>0.428954939292197</v>
+        <v>0.2804736546644975</v>
       </c>
       <c r="L14">
-        <v>0.04415391672590374</v>
+        <v>0.1328809925194214</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.09174563995414786</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04241739160602265</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1110,49 +1188,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.473404373822177</v>
+        <v>5.469130842399352</v>
       </c>
       <c r="C15">
-        <v>1.841505099448511</v>
+        <v>1.956984416288776</v>
       </c>
       <c r="D15">
-        <v>0.4388834156836481</v>
+        <v>0.4369844589866432</v>
       </c>
       <c r="E15">
-        <v>0.1138511251587495</v>
+        <v>0.1123843083005625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.176732712900503</v>
+        <v>0.9599892597581743</v>
       </c>
       <c r="H15">
-        <v>0.1768533903932337</v>
+        <v>0.176493881642557</v>
       </c>
       <c r="I15">
-        <v>0.005198634439967265</v>
+        <v>0.005109575473212224</v>
       </c>
       <c r="J15">
-        <v>0.710177346641899</v>
+        <v>0.4925629996340604</v>
       </c>
       <c r="K15">
-        <v>0.408612178154371</v>
+        <v>0.2722395441054388</v>
       </c>
       <c r="L15">
-        <v>0.04059168878601227</v>
+        <v>0.1305477361852532</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.08748043982169307</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03904355320100983</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1163,49 +1247,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.127300869859084</v>
+        <v>5.126439329044217</v>
       </c>
       <c r="C16">
-        <v>1.726497470321306</v>
+        <v>1.850573435588899</v>
       </c>
       <c r="D16">
-        <v>0.4192497253762895</v>
+        <v>0.4181232679645461</v>
       </c>
       <c r="E16">
-        <v>0.1092948526248563</v>
+        <v>0.1084292176566457</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.127949976017206</v>
+        <v>0.9027270896110622</v>
       </c>
       <c r="H16">
-        <v>0.1629006268083657</v>
+        <v>0.1627581908990123</v>
       </c>
       <c r="I16">
-        <v>0.003762397525236771</v>
+        <v>0.004012828082654352</v>
       </c>
       <c r="J16">
-        <v>0.6923020666829984</v>
+        <v>0.5557221336491125</v>
       </c>
       <c r="K16">
-        <v>0.4067690991418189</v>
+        <v>0.2884945607043718</v>
       </c>
       <c r="L16">
-        <v>0.03792797442307005</v>
+        <v>0.1387842757898987</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.08953172222688721</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03703239066975517</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1216,49 +1306,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.917374285935523</v>
+        <v>4.917902693969836</v>
       </c>
       <c r="C17">
-        <v>1.684486696451245</v>
+        <v>1.821543227546783</v>
       </c>
       <c r="D17">
-        <v>0.4414933828139453</v>
+        <v>0.4406714239169673</v>
       </c>
       <c r="E17">
-        <v>0.1256498415747522</v>
+        <v>0.1250191968015706</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.200255034203195</v>
+        <v>0.9479787853174599</v>
       </c>
       <c r="H17">
-        <v>0.1246485462423266</v>
+        <v>0.124572807741643</v>
       </c>
       <c r="I17">
-        <v>0.003213912453309042</v>
+        <v>0.003580495082564639</v>
       </c>
       <c r="J17">
-        <v>0.7331484825902521</v>
+        <v>0.6198354883072739</v>
       </c>
       <c r="K17">
-        <v>0.4467133153979574</v>
+        <v>0.3215261797074689</v>
       </c>
       <c r="L17">
-        <v>0.04410111740596179</v>
+        <v>0.1522926410900531</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.09988788963838147</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04345841906380521</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1269,49 +1365,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.799796269623073</v>
+        <v>4.80048418670134</v>
       </c>
       <c r="C18">
-        <v>1.696223009236576</v>
+        <v>1.856158211729564</v>
       </c>
       <c r="D18">
-        <v>0.5056259496991515</v>
+        <v>0.5047657654420732</v>
       </c>
       <c r="E18">
-        <v>0.167735631418136</v>
+        <v>0.167073193441901</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.402089136274583</v>
+        <v>1.092600412576218</v>
       </c>
       <c r="H18">
-        <v>0.07179762949174062</v>
+        <v>0.07172345195029806</v>
       </c>
       <c r="I18">
-        <v>0.002906999683732536</v>
+        <v>0.003238806143701645</v>
       </c>
       <c r="J18">
-        <v>0.8375631817923477</v>
+        <v>0.7123632970580189</v>
       </c>
       <c r="K18">
-        <v>0.537822873175287</v>
+        <v>0.3823137889724819</v>
       </c>
       <c r="L18">
-        <v>0.06801830452682367</v>
+        <v>0.1755501383067326</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1219345403815666</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06734885278116209</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1322,49 +1424,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.764634051797827</v>
+        <v>4.764509591726664</v>
       </c>
       <c r="C19">
-        <v>1.758441622527641</v>
+        <v>1.948983719140983</v>
       </c>
       <c r="D19">
-        <v>0.6045321726222426</v>
+        <v>0.6033092234173409</v>
       </c>
       <c r="E19">
-        <v>0.2367027561196196</v>
+        <v>0.2357522296681296</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.698027727184069</v>
+        <v>1.306182648334982</v>
       </c>
       <c r="H19">
-        <v>0.02699340143513496</v>
+        <v>0.02686276775929031</v>
       </c>
       <c r="I19">
-        <v>0.003319243095001312</v>
+        <v>0.003618129582059204</v>
       </c>
       <c r="J19">
-        <v>0.9872749689198486</v>
+        <v>0.8269401586296112</v>
       </c>
       <c r="K19">
-        <v>0.6680348747511147</v>
+        <v>0.4639947817819419</v>
       </c>
       <c r="L19">
-        <v>0.1189289866967087</v>
+        <v>0.2059644239981502</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1529807270069128</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1179681299763828</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1375,49 +1483,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.963105673315567</v>
+        <v>4.958999845800122</v>
       </c>
       <c r="C20">
-        <v>1.948237567314777</v>
+        <v>2.192071122897289</v>
       </c>
       <c r="D20">
-        <v>0.7989642824423981</v>
+        <v>0.7962440799815056</v>
       </c>
       <c r="E20">
-        <v>0.3788333719463139</v>
+        <v>0.3766762803137382</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.27613361492098</v>
+        <v>1.727868946106611</v>
       </c>
       <c r="H20">
-        <v>0.003288568904896039</v>
+        <v>0.0027924893268092</v>
       </c>
       <c r="I20">
-        <v>0.005191902462003739</v>
+        <v>0.005130085695641995</v>
       </c>
       <c r="J20">
-        <v>1.273028291130458</v>
+        <v>1.001765585772546</v>
       </c>
       <c r="K20">
-        <v>0.9167886544433017</v>
+        <v>0.6069958786694514</v>
       </c>
       <c r="L20">
-        <v>0.2427523474500077</v>
+        <v>0.2553919809815923</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.212431053685556</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2405349528506804</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1428,49 +1542,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.597040196011051</v>
+        <v>5.584129550421437</v>
       </c>
       <c r="C21">
-        <v>2.211654651309289</v>
+        <v>2.451772878582801</v>
       </c>
       <c r="D21">
-        <v>0.9047527136513906</v>
+        <v>0.8994441093501564</v>
       </c>
       <c r="E21">
-        <v>0.4373820722975026</v>
+        <v>0.4331408593636112</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.569361568368549</v>
+        <v>2.003369570849685</v>
       </c>
       <c r="H21">
-        <v>0.007676288818662225</v>
+        <v>0.006260387837180414</v>
       </c>
       <c r="I21">
-        <v>0.009488769473992242</v>
+        <v>0.008318407576840769</v>
       </c>
       <c r="J21">
-        <v>1.407153191131101</v>
+        <v>0.8651989468455668</v>
       </c>
       <c r="K21">
-        <v>1.00810026763439</v>
+        <v>0.605848214222604</v>
       </c>
       <c r="L21">
-        <v>0.2878013904991121</v>
+        <v>0.2448692928239424</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2259475688012955</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2833426571409348</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1481,49 +1601,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.01336542164313</v>
+        <v>5.993634691955094</v>
       </c>
       <c r="C22">
-        <v>2.374977856112594</v>
+        <v>2.607031780534044</v>
       </c>
       <c r="D22">
-        <v>0.9659933763738593</v>
+        <v>0.9589123938479815</v>
       </c>
       <c r="E22">
-        <v>0.4690750403508446</v>
+        <v>0.4633998404030422</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.750131635812494</v>
+        <v>2.184157292980728</v>
       </c>
       <c r="H22">
-        <v>0.01142756284897839</v>
+        <v>0.009196883204976122</v>
       </c>
       <c r="I22">
-        <v>0.01281020022853596</v>
+        <v>0.0105618426439591</v>
       </c>
       <c r="J22">
-        <v>1.489438224323067</v>
+        <v>0.768462451351553</v>
       </c>
       <c r="K22">
-        <v>1.063874926711364</v>
+        <v>0.6004358071748399</v>
       </c>
       <c r="L22">
-        <v>0.3110590918915221</v>
+        <v>0.2364648457254077</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2333064214883009</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.305018169808065</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1534,49 +1660,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.791139717013948</v>
+        <v>5.775311961575483</v>
       </c>
       <c r="C23">
-        <v>2.28247221406707</v>
+        <v>2.524368679707834</v>
       </c>
       <c r="D23">
-        <v>0.9332989803378382</v>
+        <v>0.9272325552288692</v>
       </c>
       <c r="E23">
-        <v>0.4521702264627194</v>
+        <v>0.4473153009199038</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.665158729527917</v>
+        <v>2.087428824612033</v>
       </c>
       <c r="H23">
-        <v>0.009354970871394197</v>
+        <v>0.007595276363200731</v>
       </c>
       <c r="I23">
-        <v>0.01071187418339203</v>
+        <v>0.009017995836865467</v>
       </c>
       <c r="J23">
-        <v>1.451320725718517</v>
+        <v>0.8457046946532785</v>
       </c>
       <c r="K23">
-        <v>1.040804174560719</v>
+        <v>0.6122479287903673</v>
       </c>
       <c r="L23">
-        <v>0.2986513374989954</v>
+        <v>0.2439970254963129</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.233001371853419</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2935161428267605</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1587,49 +1719,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.954040151706295</v>
+        <v>4.949803686063319</v>
       </c>
       <c r="C24">
-        <v>1.944937856561523</v>
+        <v>2.192693070631435</v>
       </c>
       <c r="D24">
-        <v>0.8107817894239986</v>
+        <v>0.8079903607655012</v>
       </c>
       <c r="E24">
-        <v>0.3888295367367434</v>
+        <v>0.3866129097729143</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.3302581537923</v>
+        <v>1.766819110476206</v>
       </c>
       <c r="H24">
-        <v>0.00331201676017101</v>
+        <v>0.002795701822073005</v>
       </c>
       <c r="I24">
-        <v>0.004801327912368869</v>
+        <v>0.004622807581665889</v>
       </c>
       <c r="J24">
-        <v>1.300350802510394</v>
+        <v>1.023600538245319</v>
       </c>
       <c r="K24">
-        <v>0.9445739367076058</v>
+        <v>0.6252041516351241</v>
       </c>
       <c r="L24">
-        <v>0.2525032930454358</v>
+        <v>0.2621452755667519</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2193549973655422</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2502234813106696</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1640,49 +1778,55 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.058993820397063</v>
+        <v>4.061680303889148</v>
       </c>
       <c r="C25">
-        <v>1.588367608272904</v>
+        <v>1.786792699074908</v>
       </c>
       <c r="D25">
-        <v>0.6810135431842923</v>
+        <v>0.6805712999086779</v>
       </c>
       <c r="E25">
-        <v>0.3217645075225732</v>
+        <v>0.321418006348523</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.980089610855941</v>
+        <v>1.524005032265819</v>
       </c>
       <c r="H25">
-        <v>0.00019917273000436</v>
+        <v>0.0001774376905840924</v>
       </c>
       <c r="I25">
-        <v>0.001485487332403501</v>
+        <v>0.001823059112917136</v>
       </c>
       <c r="J25">
-        <v>1.143128628753715</v>
+        <v>0.9406785072900732</v>
       </c>
       <c r="K25">
-        <v>0.8449211386052013</v>
+        <v>0.5888409736240448</v>
       </c>
       <c r="L25">
-        <v>0.2043049179146124</v>
+        <v>0.2633656406187015</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1873230057718409</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.20396242938142</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
